--- a/sriramModel-nelson-atypical-patientID_54-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_54-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.083126730634799</v>
+        <v>8.102529058302146</v>
       </c>
       <c r="C2">
-        <v>8.068966177593168</v>
+        <v>8.095578826972318</v>
       </c>
       <c r="D2">
-        <v>8.067965163709337</v>
+        <v>8.099319471908919</v>
       </c>
       <c r="E2">
-        <v>8.071136476914594</v>
+        <v>8.091270304067988</v>
       </c>
       <c r="F2">
-        <v>8.07714308818549</v>
+        <v>8.090829960882735</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.157916023211806</v>
+        <v>8.196507333258447</v>
       </c>
       <c r="C3">
-        <v>8.130499841970492</v>
+        <v>8.181001014119348</v>
       </c>
       <c r="D3">
-        <v>8.129182447333788</v>
+        <v>8.188618684810375</v>
       </c>
       <c r="E3">
-        <v>8.134214460640282</v>
+        <v>8.172586982285813</v>
       </c>
       <c r="F3">
-        <v>8.146335381412674</v>
+        <v>8.171736161938203</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.228452275406182</v>
+        <v>8.286021992844645</v>
       </c>
       <c r="C4">
-        <v>8.188625115036404</v>
+        <v>8.260475408954905</v>
       </c>
       <c r="D4">
-        <v>8.187555923358532</v>
+        <v>8.272086984210361</v>
       </c>
       <c r="E4">
-        <v>8.193273183864907</v>
+        <v>8.248147450178292</v>
       </c>
       <c r="F4">
-        <v>8.211588493842315</v>
+        <v>8.246912024459457</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.295099123544203</v>
+        <v>8.371439365200358</v>
       </c>
       <c r="C5">
-        <v>8.243649886021039</v>
+        <v>8.334484477398503</v>
       </c>
       <c r="D5">
-        <v>8.243281588017727</v>
+        <v>8.350188836663785</v>
       </c>
       <c r="E5">
-        <v>8.248633527548249</v>
+        <v>8.318424355485284</v>
       </c>
       <c r="F5">
-        <v>8.273198494883554</v>
+        <v>8.316826561273036</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.35820097741213</v>
+        <v>8.453107410729647</v>
       </c>
       <c r="C6">
-        <v>8.29586693936154</v>
+        <v>8.4034861851933</v>
       </c>
       <c r="D6">
-        <v>8.296547796285878</v>
+        <v>8.423365646686207</v>
       </c>
       <c r="E6">
-        <v>8.30059954717629</v>
+        <v>8.383867095704874</v>
       </c>
       <c r="F6">
-        <v>8.331447093870954</v>
+        <v>8.381925577445854</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.418083786373201</v>
+        <v>8.531355598071819</v>
       </c>
       <c r="C7">
-        <v>8.34555478858905</v>
+        <v>8.46791520865526</v>
       </c>
       <c r="D7">
-        <v>8.347535681330829</v>
+        <v>8.492036277233908</v>
       </c>
       <c r="E7">
-        <v>8.349459294822767</v>
+        <v>8.444902338440519</v>
       </c>
       <c r="F7">
-        <v>8.386602661278337</v>
+        <v>8.44263296228538</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.475055790240228</v>
+        <v>8.606496184424683</v>
       </c>
       <c r="C8">
-        <v>8.392978102759898</v>
+        <v>8.528184123080518</v>
       </c>
       <c r="D8">
-        <v>8.396419473551887</v>
+        <v>8.556598811878951</v>
       </c>
       <c r="E8">
-        <v>8.395485524485652</v>
+        <v>8.501935833853501</v>
       </c>
       <c r="F8">
-        <v>8.438920435442823</v>
+        <v>8.49935170700064</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.529408566146191</v>
+        <v>8.678825332734764</v>
       </c>
       <c r="C9">
-        <v>8.438388350548236</v>
+        <v>8.584684492347865</v>
       </c>
       <c r="D9">
-        <v>8.44336679889518</v>
+        <v>8.617431358441626</v>
       </c>
       <c r="E9">
-        <v>8.438936510724222</v>
+        <v>8.555353234811705</v>
       </c>
       <c r="F9">
-        <v>8.488643335269558</v>
+        <v>8.552464905928138</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.581417808571477</v>
+        <v>8.748623720980406</v>
       </c>
       <c r="C10">
-        <v>8.482024416261213</v>
+        <v>8.637788088733938</v>
       </c>
       <c r="D10">
-        <v>8.488538971166669</v>
+        <v>8.674893057146321</v>
       </c>
       <c r="E10">
-        <v>8.480056819928206</v>
+        <v>8.605520973433576</v>
       </c>
       <c r="F10">
-        <v>8.536002706766771</v>
+        <v>8.602336697026468</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.631343927176259</v>
+        <v>8.816157214865866</v>
       </c>
       <c r="C11">
-        <v>8.524113143465353</v>
+        <v>8.687847880868951</v>
       </c>
       <c r="D11">
-        <v>8.532091284837522</v>
+        <v>8.729325062327673</v>
       </c>
       <c r="E11">
-        <v>8.519078000323578</v>
+        <v>8.652787266978615</v>
       </c>
       <c r="F11">
-        <v>8.581218682228588</v>
+        <v>8.649313287458943</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.679432758343838</v>
+        <v>8.881677681234729</v>
       </c>
       <c r="C12">
-        <v>8.564869831681948</v>
+        <v>8.735198933500143</v>
       </c>
       <c r="D12">
-        <v>8.574173251585941</v>
+        <v>8.781051345406796</v>
       </c>
       <c r="E12">
-        <v>8.556219220302806</v>
+        <v>8.697483047340684</v>
       </c>
       <c r="F12">
-        <v>8.624500662614043</v>
+        <v>8.693723796135794</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.725916215246157</v>
+        <v>8.945423712751447</v>
       </c>
       <c r="C13">
-        <v>8.604498715626189</v>
+        <v>8.780159334463839</v>
       </c>
       <c r="D13">
-        <v>8.614928823280605</v>
+        <v>8.83037950734807</v>
       </c>
       <c r="E13">
-        <v>8.591687947117801</v>
+        <v>8.739922805857217</v>
       </c>
       <c r="F13">
-        <v>8.666047863941898</v>
+        <v>8.735881057284242</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.771012968488558</v>
+        <v>9.007621245602099</v>
       </c>
       <c r="C14">
-        <v>8.643193465588041</v>
+        <v>8.823031072750583</v>
       </c>
       <c r="D14">
-        <v>8.654496618969418</v>
+        <v>8.877601520272639</v>
       </c>
       <c r="E14">
-        <v>8.625680428551055</v>
+        <v>8.780405424420891</v>
       </c>
       <c r="F14">
-        <v>8.70604987103029</v>
+        <v>8.776082414927576</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.814929053980585</v>
+        <v>9.068484184261724</v>
       </c>
       <c r="C15">
-        <v>8.681137599814436</v>
+        <v>8.86410085709457</v>
       </c>
       <c r="D15">
-        <v>8.693010134457097</v>
+        <v>8.922994960482809</v>
       </c>
       <c r="E15">
-        <v>8.658382221359938</v>
+        <v>8.819214849659831</v>
       </c>
       <c r="F15">
-        <v>8.744687210895171</v>
+        <v>8.814610489308125</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.857858405078787</v>
+        <v>9.128215054976405</v>
       </c>
       <c r="C16">
-        <v>8.718504714728073</v>
+        <v>8.903640918144651</v>
       </c>
       <c r="D16">
-        <v>8.730597938245726</v>
+        <v>8.966823441585859</v>
       </c>
       <c r="E16">
-        <v>8.689968916082586</v>
+        <v>8.856620835174512</v>
       </c>
       <c r="F16">
-        <v>8.782131562879902</v>
+        <v>8.851733874161047</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.899983426638986</v>
+        <v>9.187005376813431</v>
       </c>
       <c r="C17">
-        <v>8.755459150668962</v>
+        <v>8.941909695534472</v>
       </c>
       <c r="D17">
-        <v>8.767383850350448</v>
+        <v>9.00933726897771</v>
       </c>
       <c r="E17">
-        <v>8.720606660165618</v>
+        <v>8.892879624424715</v>
       </c>
       <c r="F17">
-        <v>8.818546185669391</v>
+        <v>8.887707906579639</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.94147545808706</v>
+        <v>9.245036188332126</v>
       </c>
       <c r="C18">
-        <v>8.792156424268207</v>
+        <v>8.979152533414991</v>
       </c>
       <c r="D18">
-        <v>8.803487111279544</v>
+        <v>9.050774073030061</v>
       </c>
       <c r="E18">
-        <v>8.750452519329706</v>
+        <v>8.928234574324513</v>
       </c>
       <c r="F18">
-        <v>8.854086334069462</v>
+        <v>8.922775149862405</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.982495241384541</v>
+        <v>9.302478791167603</v>
       </c>
       <c r="C19">
-        <v>8.82874340615655</v>
+        <v>9.015602341972512</v>
       </c>
       <c r="D19">
-        <v>8.839022545963898</v>
+        <v>9.091359433844259</v>
       </c>
       <c r="E19">
-        <v>8.779654892105077</v>
+        <v>8.962917101726815</v>
       </c>
       <c r="F19">
-        <v>8.888899631464815</v>
+        <v>8.957166381505061</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.02319339719725</v>
+        <v>9.359495028810459</v>
       </c>
       <c r="C20">
-        <v>8.865358633273965</v>
+        <v>9.051480222520345</v>
       </c>
       <c r="D20">
-        <v>8.874100717729307</v>
+        <v>9.13130751967414</v>
       </c>
       <c r="E20">
-        <v>8.808353967582994</v>
+        <v>8.99714699901689</v>
       </c>
       <c r="F20">
-        <v>8.923126455944265</v>
+        <v>8.991100690308365</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.063710845942676</v>
+        <v>9.416237917307503</v>
       </c>
       <c r="C21">
-        <v>8.902132650285331</v>
+        <v>9.086996068866586</v>
       </c>
       <c r="D21">
-        <v>8.908828071557382</v>
+        <v>9.170821658520493</v>
       </c>
       <c r="E21">
-        <v>8.836682183719024</v>
+        <v>9.03113302966895</v>
       </c>
       <c r="F21">
-        <v>8.956900284171537</v>
+        <v>9.024786288854827</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.104179209153992</v>
+        <v>9.472851971607311</v>
       </c>
       <c r="C22">
-        <v>8.93918830760618</v>
+        <v>9.122349132079894</v>
       </c>
       <c r="D22">
-        <v>8.943307067683328</v>
+        <v>9.210094846211041</v>
       </c>
       <c r="E22">
-        <v>8.864764595183189</v>
+        <v>9.065073461073547</v>
       </c>
       <c r="F22">
-        <v>8.99034799306474</v>
+        <v>9.05842095943121</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.144721186013481</v>
+        <v>9.529473534669874</v>
       </c>
       <c r="C23">
-        <v>8.976641065666934</v>
+        <v>9.157728547521987</v>
       </c>
       <c r="D23">
-        <v>8.977636306570485</v>
+        <v>9.249310395274762</v>
       </c>
       <c r="E23">
-        <v>8.892719300542403</v>
+        <v>9.099156526975257</v>
       </c>
       <c r="F23">
-        <v>9.023590163155836</v>
+        <v>9.092192649176456</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.185450907372157</v>
+        <v>9.586231205481763</v>
       </c>
       <c r="C24">
-        <v>9.014599258205912</v>
+        <v>9.193313831244245</v>
       </c>
       <c r="D24">
-        <v>9.011910645698444</v>
+        <v>9.288642132356797</v>
       </c>
       <c r="E24">
-        <v>8.920657651740761</v>
+        <v>9.13356100377581</v>
       </c>
       <c r="F24">
-        <v>9.056741369161809</v>
+        <v>9.126279921611374</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.226474273908677</v>
+        <v>9.643246117853961</v>
       </c>
       <c r="C25">
-        <v>9.053164317268998</v>
+        <v>9.229275364227153</v>
       </c>
       <c r="D25">
-        <v>9.046221308572324</v>
+        <v>9.328255411213718</v>
       </c>
       <c r="E25">
-        <v>8.948684841110483</v>
+        <v>9.168456641366232</v>
       </c>
       <c r="F25">
-        <v>9.089910457898808</v>
+        <v>9.160852425422926</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9.26788926393564</v>
+        <v>9.700632367622839</v>
       </c>
       <c r="C26">
-        <v>9.092430980655267</v>
+        <v>9.265774847156878</v>
       </c>
       <c r="D26">
-        <v>9.080655985782382</v>
+        <v>9.368306824109741</v>
       </c>
       <c r="E26">
-        <v>8.976899885893388</v>
+        <v>9.204004633913046</v>
       </c>
       <c r="F26">
-        <v>9.123200817712139</v>
+        <v>9.196071325055797</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9.309786221876584</v>
+        <v>9.758497289968764</v>
       </c>
       <c r="C27">
-        <v>9.132487500225519</v>
+        <v>9.302965739095161</v>
       </c>
       <c r="D27">
-        <v>9.115298925777878</v>
+        <v>9.408945027050661</v>
       </c>
       <c r="E27">
-        <v>9.005396208769749</v>
+        <v>9.240358014845382</v>
       </c>
       <c r="F27">
-        <v>9.156710627011343</v>
+        <v>9.232089656360509</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.352248134991495</v>
+        <v>9.816941788453185</v>
       </c>
       <c r="C28">
-        <v>9.173415834019401</v>
+        <v>9.340993662461189</v>
       </c>
       <c r="D28">
-        <v>9.150231018665661</v>
+        <v>9.45031096506958</v>
       </c>
       <c r="E28">
-        <v>9.034261701578297</v>
+        <v>9.277662039648403</v>
       </c>
       <c r="F28">
-        <v>9.190533088861098</v>
+        <v>9.269052755510714</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9.395350886350576</v>
+        <v>9.876060573924121</v>
       </c>
       <c r="C29">
-        <v>9.215291819130396</v>
+        <v>9.379996794285503</v>
       </c>
       <c r="D29">
-        <v>9.185529870701412</v>
+        <v>9.492538416929596</v>
       </c>
       <c r="E29">
-        <v>9.063579092969897</v>
+        <v>9.31605456865619</v>
       </c>
       <c r="F29">
-        <v>9.224756653529356</v>
+        <v>9.307098632387888</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.439163495109351</v>
+        <v>9.93594242154369</v>
       </c>
       <c r="C30">
-        <v>9.25818532499542</v>
+        <v>9.420106236563811</v>
       </c>
       <c r="D30">
-        <v>9.221269870148509</v>
+        <v>9.535754282357908</v>
       </c>
       <c r="E30">
-        <v>9.093426205261322</v>
+        <v>9.355666426129424</v>
       </c>
       <c r="F30">
-        <v>9.259465229163501</v>
+        <v>9.34635833106713</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9.483748321504024</v>
+        <v>9.996670423334264</v>
       </c>
       <c r="C31">
-        <v>9.302160387091078</v>
+        <v>9.461446365602381</v>
       </c>
       <c r="D31">
-        <v>9.257522243994876</v>
+        <v>9.580078965644272</v>
       </c>
       <c r="E31">
-        <v>9.123876140071422</v>
+        <v>9.396621740349863</v>
       </c>
       <c r="F31">
-        <v>9.294738380334705</v>
+        <v>9.386956257342726</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.529161271319378</v>
+        <v>10.05832217014102</v>
       </c>
       <c r="C32">
-        <v>9.347275325033966</v>
+        <v>9.504135163972812</v>
       </c>
       <c r="D32">
-        <v>9.294355105065252</v>
+        <v>9.625626635857561</v>
       </c>
       <c r="E32">
-        <v>9.154997572083486</v>
+        <v>9.439038267719059</v>
       </c>
       <c r="F32">
-        <v>9.330651517860673</v>
+        <v>9.429010500145463</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>9.575451974564961</v>
+        <v>10.12096997403772</v>
       </c>
       <c r="C33">
-        <v>9.393582841756956</v>
+        <v>9.548284536191042</v>
       </c>
       <c r="D33">
-        <v>9.331833489015786</v>
+        <v>9.672505504055222</v>
       </c>
       <c r="E33">
-        <v>9.186854893932482</v>
+        <v>9.483027697968655</v>
       </c>
       <c r="F33">
-        <v>9.367276071110059</v>
+        <v>9.472633148064812</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9.62266395831726</v>
+        <v>10.18468105914248</v>
       </c>
       <c r="C34">
-        <v>9.441130107475084</v>
+        <v>9.594000611635257</v>
       </c>
       <c r="D34">
-        <v>9.37001938048305</v>
+        <v>9.720818141541923</v>
       </c>
       <c r="E34">
-        <v>9.219508449015715</v>
+        <v>9.528695946075814</v>
       </c>
       <c r="F34">
-        <v>9.404679651870868</v>
+        <v>9.517930548272746</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9.670834781963812</v>
+        <v>10.24951772333033</v>
       </c>
       <c r="C35">
-        <v>9.489958825569191</v>
+        <v>9.641384030887799</v>
       </c>
       <c r="D35">
-        <v>9.408971728432991</v>
+        <v>9.770661732806092</v>
       </c>
       <c r="E35">
-        <v>9.253014703036275</v>
+        <v>9.576143426025872</v>
       </c>
       <c r="F35">
-        <v>9.44292620468228</v>
+        <v>9.565003594010712</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9.719996173375845</v>
+        <v>10.31553748452232</v>
       </c>
       <c r="C36">
-        <v>9.540105278527552</v>
+        <v>9.690530215699974</v>
       </c>
       <c r="D36">
-        <v>9.44874644903534</v>
+        <v>9.822128360157263</v>
       </c>
       <c r="E36">
-        <v>9.28742636903444</v>
+        <v>9.625465303339062</v>
       </c>
       <c r="F36">
-        <v>9.482076144568415</v>
+        <v>9.613947986099793</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9.770174141505235</v>
+        <v>10.38279322007592</v>
       </c>
       <c r="C37">
-        <v>9.59160035441967</v>
+        <v>9.741529621992708</v>
       </c>
       <c r="D37">
-        <v>9.489396414808439</v>
+        <v>9.875305226182729</v>
       </c>
       <c r="E37">
-        <v>9.322792643978513</v>
+        <v>9.676751746612986</v>
       </c>
       <c r="F37">
-        <v>9.522186481527523</v>
+        <v>9.664854477453327</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9.821389081156648</v>
+        <v>10.45133329219163</v>
       </c>
       <c r="C38">
-        <v>9.644469553469985</v>
+        <v>9.794467984506356</v>
       </c>
       <c r="D38">
-        <v>9.530971430145023</v>
+        <v>9.930274909764128</v>
       </c>
       <c r="E38">
-        <v>9.359159254449038</v>
+        <v>9.730088158532737</v>
       </c>
       <c r="F38">
-        <v>9.563310934021709</v>
+        <v>9.717809101082402</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9.873655846472136</v>
+        <v>10.52120162958274</v>
       </c>
       <c r="C39">
-        <v>9.698732973558005</v>
+        <v>9.849426546237725</v>
       </c>
       <c r="D39">
-        <v>9.573518190729175</v>
+        <v>9.987115548076869</v>
       </c>
       <c r="E39">
-        <v>9.396568667116117</v>
+        <v>9.785555401881266</v>
       </c>
       <c r="F39">
-        <v>9.605500022041429</v>
+        <v>9.772893392525701</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.92698381868988</v>
+        <v>10.59243782226499</v>
       </c>
       <c r="C40">
-        <v>9.754405276417664</v>
+        <v>9.906482277728268</v>
       </c>
       <c r="D40">
-        <v>9.617080225206404</v>
+        <v>10.04590104307154</v>
       </c>
       <c r="E40">
-        <v>9.435060153643361</v>
+        <v>9.843229996894387</v>
       </c>
       <c r="F40">
-        <v>9.648801148615926</v>
+        <v>9.830184603992903</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9.981376955653106</v>
+        <v>10.66507720295</v>
       </c>
       <c r="C41">
-        <v>9.811495629010311</v>
+        <v>9.965708082128446</v>
       </c>
       <c r="D41">
-        <v>9.661697816005795</v>
+        <v>10.10670125799395</v>
       </c>
       <c r="E41">
-        <v>9.474669895781044</v>
+        <v>9.903184319926154</v>
       </c>
       <c r="F41">
-        <v>9.693258661990589</v>
+        <v>9.889755886098472</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10.03683382970916</v>
+        <v>10.73915088254613</v>
       </c>
       <c r="C42">
-        <v>9.870007621515603</v>
+        <v>10.02717298725229</v>
       </c>
       <c r="D42">
-        <v>9.707407903856547</v>
+        <v>10.16958218166592</v>
       </c>
       <c r="E42">
-        <v>9.515431117104075</v>
+        <v>9.965486784201914</v>
       </c>
       <c r="F42">
-        <v>9.738913897476003</v>
+        <v>9.951676478719467</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>10.09334764139738</v>
+        <v>10.81468578947349</v>
       </c>
       <c r="C43">
-        <v>9.929939161918384</v>
+        <v>10.0909423291924</v>
       </c>
       <c r="D43">
-        <v>9.75424396136038</v>
+        <v>10.2346060914396</v>
       </c>
       <c r="E43">
-        <v>9.557374078527308</v>
+        <v>10.03020201499796</v>
       </c>
       <c r="F43">
-        <v>9.785805193427139</v>
+        <v>10.01601188336609</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10.15090621875779</v>
+        <v>10.89170469586042</v>
       </c>
       <c r="C44">
-        <v>9.991282344435035</v>
+        <v>10.15707792233432</v>
       </c>
       <c r="D44">
-        <v>9.80223583891984</v>
+        <v>10.30183170391313</v>
       </c>
       <c r="E44">
-        <v>9.600526151933742</v>
+        <v>10.09739099883686</v>
       </c>
       <c r="F44">
-        <v>9.833967891158983</v>
+        <v>10.0828240315798</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>10.20949200400364</v>
+        <v>10.97022621449079</v>
       </c>
       <c r="C45">
-        <v>10.05402329124315</v>
+        <v>10.22563821978777</v>
       </c>
       <c r="D45">
-        <v>9.851409581463807</v>
+        <v>10.37131431999023</v>
       </c>
       <c r="E45">
-        <v>9.644911837415382</v>
+        <v>10.16711123425278</v>
       </c>
       <c r="F45">
-        <v>9.883434295937469</v>
+        <v>10.15217142351185</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>10.26908202370679</v>
+        <v>11.05026477358415</v>
       </c>
       <c r="C46">
-        <v>10.11814196643323</v>
+        <v>10.29667845956484</v>
       </c>
       <c r="D46">
-        <v>9.901787203583124</v>
+        <v>10.44310592521312</v>
       </c>
       <c r="E46">
-        <v>9.690552777193801</v>
+        <v>10.23941686373044</v>
       </c>
       <c r="F46">
-        <v>9.934233599615423</v>
+        <v>10.22410927055596</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>10.32964784290595</v>
+        <v>11.13183058066998</v>
       </c>
       <c r="C47">
-        <v>10.18361196045131</v>
+        <v>10.37025079694788</v>
       </c>
       <c r="D47">
-        <v>9.95338642434143</v>
+        <v>10.51725529828974</v>
       </c>
       <c r="E47">
-        <v>9.737467721869493</v>
+        <v>10.31435879940823</v>
       </c>
       <c r="F47">
-        <v>9.986391762309994</v>
+        <v>10.29868962697977</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>10.39115549451565</v>
+        <v>11.21492958401849</v>
       </c>
       <c r="C48">
-        <v>10.25040024786589</v>
+        <v>10.44640442660205</v>
       </c>
       <c r="D48">
-        <v>10.0062203505464</v>
+        <v>10.59380811047748</v>
       </c>
       <c r="E48">
-        <v>9.785672460058853</v>
+        <v>10.39198482420463</v>
       </c>
       <c r="F48">
-        <v>10.03993134126954</v>
+        <v>10.37596149981807</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>10.45356540322006</v>
+        <v>11.29956336531115</v>
       </c>
       <c r="C49">
-        <v>10.31846691178199</v>
+        <v>10.52518567874398</v>
       </c>
       <c r="D49">
-        <v>10.06029710021099</v>
+        <v>10.67280697724517</v>
       </c>
       <c r="E49">
-        <v>9.835179713065411</v>
+        <v>10.47233968486143</v>
       </c>
       <c r="F49">
-        <v>10.09487125709289</v>
+        <v>10.45597094850197</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>10.51683228723704</v>
+        <v>11.38572904620741</v>
       </c>
       <c r="C50">
-        <v>10.3877648384805</v>
+        <v>10.60663811887509</v>
       </c>
       <c r="D50">
-        <v>10.11561935646225</v>
+        <v>10.75429150777382</v>
       </c>
       <c r="E50">
-        <v>9.885998975227688</v>
+        <v>10.55546516816644</v>
       </c>
       <c r="F50">
-        <v>10.1512264943916</v>
+        <v>10.53876117205048</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10.58090505481334</v>
+        <v>11.47341917727723</v>
       </c>
       <c r="C51">
-        <v>10.45823938445935</v>
+        <v>10.69080258966703</v>
       </c>
       <c r="D51">
-        <v>10.17218383977103</v>
+        <v>10.83829833604141</v>
       </c>
       <c r="E51">
-        <v>9.938136284612886</v>
+        <v>10.64140016388212</v>
       </c>
       <c r="F51">
-        <v>10.2090076861452</v>
+        <v>10.62437259066697</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>10.64572666951543</v>
+        <v>11.56262156930123</v>
       </c>
       <c r="C52">
-        <v>10.52982801916199</v>
+        <v>10.77771724990762</v>
       </c>
       <c r="D52">
-        <v>10.22998068780287</v>
+        <v>10.92486111902849</v>
       </c>
       <c r="E52">
-        <v>9.991593935906982</v>
+        <v>10.73018070067953</v>
       </c>
       <c r="F52">
-        <v>10.26822062676291</v>
+        <v>10.71284288921677</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>10.71140708108524</v>
+        <v>11.65331910979964</v>
       </c>
       <c r="C53">
-        <v>10.60262132240734</v>
+        <v>10.86741757077651</v>
       </c>
       <c r="D53">
-        <v>10.28915567748162</v>
+        <v>11.01401048323276</v>
       </c>
       <c r="E53">
-        <v>10.04658633128046</v>
+        <v>10.82183995796199</v>
       </c>
       <c r="F53">
-        <v>10.3290370096317</v>
+        <v>10.8042070519554</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>10.77870796565369</v>
+        <v>11.74548955856871</v>
       </c>
       <c r="C54">
-        <v>10.677316050431</v>
+        <v>10.95993627201275</v>
       </c>
       <c r="D54">
-        <v>10.3504755736877</v>
+        <v>11.10577394622207</v>
       </c>
       <c r="E54">
-        <v>10.10415445973735</v>
+        <v>10.91640825253531</v>
       </c>
       <c r="F54">
-        <v>10.39228373963519</v>
+        <v>10.89849735930006</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>10.84846516096295</v>
+        <v>11.83910531735461</v>
       </c>
       <c r="C55">
-        <v>10.75467529616962</v>
+        <v>11.05530319104895</v>
       </c>
       <c r="D55">
-        <v>10.41479967049914</v>
+        <v>11.20017583187262</v>
       </c>
       <c r="E55">
-        <v>10.16547647163339</v>
+        <v>11.01391301071636</v>
       </c>
       <c r="F55">
-        <v>10.45889314935613</v>
+        <v>10.99574337126024</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>10.9214090721577</v>
+        <v>11.93413311705016</v>
       </c>
       <c r="C56">
-        <v>10.83535869539448</v>
+        <v>11.15354506421574</v>
       </c>
       <c r="D56">
-        <v>10.48290663074126</v>
+        <v>11.29723703662945</v>
       </c>
       <c r="E56">
-        <v>10.23164176291429</v>
+        <v>11.11437863928571</v>
       </c>
       <c r="F56">
-        <v>10.52972244423779</v>
+        <v>11.09597186671538</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>10.99816687174425</v>
+        <v>12.03053370338493</v>
       </c>
       <c r="C57">
-        <v>10.91992337035189</v>
+        <v>11.25468517590368</v>
       </c>
       <c r="D57">
-        <v>10.55548893785518</v>
+        <v>11.39697477578376</v>
       </c>
       <c r="E57">
-        <v>10.30365080657826</v>
+        <v>11.21782639638545</v>
       </c>
       <c r="F57">
-        <v>10.60555118647225</v>
+        <v>11.19920672601452</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>11.07926400137984</v>
+        <v>12.12826150609397</v>
       </c>
       <c r="C58">
-        <v>11.00882334193514</v>
+        <v>11.35874283123036</v>
       </c>
       <c r="D58">
-        <v>10.63314598403963</v>
+        <v>11.49940233885454</v>
       </c>
       <c r="E58">
-        <v>10.38241204007988</v>
+        <v>11.32427418170882</v>
       </c>
       <c r="F58">
-        <v>10.68707651976362</v>
+        <v>11.30546874682543</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>11.1651256215801</v>
+        <v>12.22726418701407</v>
       </c>
       <c r="C59">
-        <v>11.1024096710369</v>
+        <v>11.46573260880485</v>
       </c>
       <c r="D59">
-        <v>10.71637584748602</v>
+        <v>11.60452846609428</v>
       </c>
       <c r="E59">
-        <v>10.46873664750595</v>
+        <v>11.43373622724447</v>
       </c>
       <c r="F59">
-        <v>10.77490676812385</v>
+        <v>11.4147753738004</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>11.25607786610743</v>
+        <v>12.32748218398666</v>
       </c>
       <c r="C60">
-        <v>11.200930377768</v>
+        <v>11.57566330524538</v>
       </c>
       <c r="D60">
-        <v>10.80556604878615</v>
+        <v>11.71235680359684</v>
       </c>
       <c r="E60">
-        <v>10.56333059485825</v>
+        <v>11.54622266034235</v>
       </c>
       <c r="F60">
-        <v>10.86955323346884</v>
+        <v>11.52714030841389</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>11.35234874094182</v>
+        <v>12.42884815903894</v>
       </c>
       <c r="C61">
-        <v>11.30453057730803</v>
+        <v>11.68853649581125</v>
       </c>
       <c r="D61">
-        <v>10.90098326429519</v>
+        <v>11.82288512545229</v>
       </c>
       <c r="E61">
-        <v>10.66678333702673</v>
+        <v>11.66173890240586</v>
       </c>
       <c r="F61">
-        <v>10.97142028653227</v>
+        <v>11.64257295042927</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>11.4540690167624</v>
+        <v>12.53128642376019</v>
       </c>
       <c r="C62">
-        <v>11.41325301748235</v>
+        <v>11.80434460449804</v>
       </c>
       <c r="D62">
-        <v>11.00276271481118</v>
+        <v>11.93610430496583</v>
       </c>
       <c r="E62">
-        <v>10.77955285504317</v>
+        <v>11.78028484027682</v>
       </c>
       <c r="F62">
-        <v>11.08079356753976</v>
+        <v>11.76107760301631</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>11.56127321424721</v>
+        <v>12.63471228719444</v>
       </c>
       <c r="C63">
-        <v>11.52703916855689</v>
+        <v>11.92306837340713</v>
       </c>
       <c r="D63">
-        <v>11.11089810666271</v>
+        <v>12.05199696620577</v>
       </c>
       <c r="E63">
-        <v>10.90194566545346</v>
+        <v>11.90185367650907</v>
       </c>
       <c r="F63">
-        <v>11.19782673682556</v>
+        <v>11.88265237753114</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>11.67390070624756</v>
+        <v>12.73903131142747</v>
       </c>
       <c r="C64">
-        <v>11.64573110105693</v>
+        <v>12.04467359262857</v>
       </c>
       <c r="D64">
-        <v>11.22523362431485</v>
+        <v>12.17053574831879</v>
       </c>
       <c r="E64">
-        <v>11.03409256345051</v>
+        <v>12.02643035775223</v>
       </c>
       <c r="F64">
-        <v>11.32252747935059</v>
+        <v>12.00728754569105</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>11.79179711140047</v>
+        <v>12.84413848390462</v>
       </c>
       <c r="C65">
-        <v>11.76907439713063</v>
+        <v>12.16910699300114</v>
       </c>
       <c r="D65">
-        <v>11.34545983995724</v>
+        <v>12.29168113870886</v>
       </c>
       <c r="E65">
-        <v>11.1759203383031</v>
+        <v>12.15398931630415</v>
       </c>
       <c r="F65">
-        <v>11.45474398106714</v>
+        <v>12.13496318929588</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>11.91471621691583</v>
+        <v>12.94991731517611</v>
       </c>
       <c r="C66">
-        <v>11.89672234927243</v>
+        <v>12.29629115492164</v>
       </c>
       <c r="D66">
-        <v>11.47111573189224</v>
+        <v>12.41537853751385</v>
       </c>
       <c r="E66">
-        <v>11.32712137179272</v>
+        <v>12.28449122672902</v>
       </c>
       <c r="F66">
-        <v>11.59415358558858</v>
+        <v>12.26564598594762</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>12.04232270689036</v>
+        <v>13.0562388650615</v>
       </c>
       <c r="C67">
-        <v>12.02824169356852</v>
+        <v>12.42611839527923</v>
       </c>
       <c r="D67">
-        <v>11.60159872086409</v>
+        <v>12.54155459861351</v>
       </c>
       <c r="E67">
-        <v>11.4871255515243</v>
+        <v>12.41787868685794</v>
       </c>
       <c r="F67">
-        <v>11.74025588633921</v>
+        <v>12.39928434650181</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>12.17419587913831</v>
+        <v>13.16296069336547</v>
       </c>
       <c r="C68">
-        <v>12.1631200901807</v>
+        <v>12.55844364393494</v>
       </c>
       <c r="D68">
-        <v>11.73618380024988</v>
+        <v>12.67011275354407</v>
       </c>
       <c r="E68">
-        <v>11.65508087721847</v>
+        <v>12.55406981254428</v>
       </c>
       <c r="F68">
-        <v>11.89237277420448</v>
+        <v>12.5358016052633</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>12.30983472974469</v>
+        <v>13.2699257863364</v>
       </c>
       <c r="C69">
-        <v>12.30077549743463</v>
+        <v>12.69307649592209</v>
       </c>
       <c r="D69">
-        <v>11.87405130580598</v>
+        <v>12.80092746113856</v>
       </c>
       <c r="E69">
-        <v>11.82985116872166</v>
+        <v>12.69294941863495</v>
       </c>
       <c r="F69">
-        <v>12.04965776848546</v>
+        <v>12.67508640858667</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>12.44866470124277</v>
+        <v>13.37696146430624</v>
       </c>
       <c r="C70">
-        <v>12.44056748308717</v>
+        <v>12.82977283539982</v>
       </c>
       <c r="D70">
-        <v>12.01432119216944</v>
+        <v>12.93383720916645</v>
       </c>
       <c r="E70">
-        <v>12.01003895915322</v>
+        <v>12.83435689472859</v>
       </c>
       <c r="F70">
-        <v>12.21111617441936</v>
+        <v>12.81697944440586</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>12.59004640251468</v>
+        <v>13.48387830611208</v>
       </c>
       <c r="C71">
-        <v>12.58181037751564</v>
+        <v>12.96822671723784</v>
       </c>
       <c r="D71">
-        <v>12.1560902077588</v>
+        <v>13.06863625194258</v>
       </c>
       <c r="E71">
-        <v>12.19403808280696</v>
+        <v>12.97807001194959</v>
       </c>
       <c r="F71">
-        <v>12.37563616675197</v>
+        <v>12.96125611441924</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>12.73328650540561</v>
+        <v>13.59046933235505</v>
       </c>
       <c r="C72">
-        <v>12.72378800635787</v>
+        <v>13.10806355644061</v>
       </c>
       <c r="D72">
-        <v>12.29846786993839</v>
+        <v>13.20506518916606</v>
       </c>
       <c r="E72">
-        <v>12.38011353872902</v>
+        <v>13.12378468706179</v>
       </c>
       <c r="F72">
-        <v>12.54202905945342</v>
+        <v>13.10760523430816</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>12.8776509087778</v>
+        <v>13.69650947776349</v>
       </c>
       <c r="C73">
-        <v>12.86576956052221</v>
+        <v>13.2488359136544</v>
       </c>
       <c r="D73">
-        <v>12.44060756704492</v>
+        <v>13.34280090210211</v>
       </c>
       <c r="E73">
-        <v>12.56649849453153</v>
+        <v>13.2710919331414</v>
       </c>
       <c r="F73">
-        <v>12.70907524478993</v>
+        <v>13.25560559522823</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>13.02238003590723</v>
+        <v>13.80175560037939</v>
       </c>
       <c r="C74">
-        <v>13.00702599342345</v>
+        <v>13.3900234056245</v>
       </c>
       <c r="D74">
-        <v>12.58173033553367</v>
+        <v>13.48144684499922</v>
       </c>
       <c r="E74">
-        <v>12.75149181601678</v>
+        <v>13.41945565219427</v>
       </c>
       <c r="F74">
-        <v>12.87557112299415</v>
+        <v>13.40470441728623</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>13.16670581763844</v>
+        <v>13.90594729168686</v>
       </c>
       <c r="C75">
-        <v>13.14684620756689</v>
+        <v>13.53103807306588</v>
       </c>
       <c r="D75">
-        <v>12.72114046501109</v>
+        <v>13.62052555937029</v>
       </c>
       <c r="E75">
-        <v>12.93354139728171</v>
+        <v>13.568197754629</v>
       </c>
       <c r="F75">
-        <v>13.04037218555724</v>
+        <v>13.55420425226533</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>13.30986965517889</v>
+        <v>14.00880879201913</v>
       </c>
       <c r="C76">
-        <v>13.28455223300123</v>
+        <v>13.67123595967087</v>
       </c>
       <c r="D76">
-        <v>12.85823330118896</v>
+        <v>13.75947547963713</v>
       </c>
       <c r="E76">
-        <v>13.11130177395176</v>
+        <v>13.71649900127958</v>
       </c>
       <c r="F76">
-        <v>13.20242829378189</v>
+        <v>13.70326629917272</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>13.4511403206845</v>
+        <v>14.11005228080129</v>
       </c>
       <c r="C77">
-        <v>13.41951262818738</v>
+        <v>13.80993491923391</v>
       </c>
       <c r="D77">
-        <v>12.99249653490859</v>
+        <v>13.89765469878489</v>
       </c>
       <c r="E77">
-        <v>13.28366314792755</v>
+        <v>13.86342280281374</v>
       </c>
       <c r="F77">
-        <v>13.36080878294743</v>
+        <v>13.85093649370203</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>13.58983060100382</v>
+        <v>14.20938266313428</v>
       </c>
       <c r="C78">
-        <v>13.55115345404657</v>
+        <v>13.94643730070824</v>
       </c>
       <c r="D78">
-        <v>13.12350671494553</v>
+        <v>14.03435405046827</v>
       </c>
       <c r="E78">
-        <v>13.44975490718402</v>
+        <v>14.00796352993301</v>
       </c>
       <c r="F78">
-        <v>13.51471681492767</v>
+        <v>13.9961951460658</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>13.72531159373453</v>
+        <v>14.30650374540654</v>
       </c>
       <c r="C79">
-        <v>13.67896637072601</v>
+        <v>14.0800552367846</v>
       </c>
       <c r="D79">
-        <v>13.25092257548356</v>
+        <v>14.16882019036007</v>
       </c>
       <c r="E79">
-        <v>13.60893066960595</v>
+        <v>14.14911243185696</v>
       </c>
       <c r="F79">
-        <v>13.66349388327579</v>
+        <v>14.13802288535538</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>13.85702355350358</v>
+        <v>14.40112541803234</v>
       </c>
       <c r="C80">
-        <v>13.80251365402119</v>
+        <v>14.210135723751</v>
       </c>
       <c r="D80">
-        <v>13.37447666066539</v>
+        <v>14.30028731519159</v>
       </c>
       <c r="E80">
-        <v>13.76074238044102</v>
+        <v>14.28592640195611</v>
       </c>
       <c r="F80">
-        <v>13.80661637884658</v>
+        <v>14.27546880392857</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>13.98448300368</v>
+        <v>14.49297111039295</v>
       </c>
       <c r="C81">
-        <v>13.92143018510512</v>
+        <v>14.33608257479282</v>
       </c>
       <c r="D81">
-        <v>13.4939662168545</v>
+        <v>14.42801352851066</v>
       </c>
       <c r="E81">
-        <v>13.90490983177841</v>
+        <v>14.41758491415006</v>
       </c>
       <c r="F81">
-        <v>13.94368646566593</v>
+        <v>14.40770652849004</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>14.10728569134626</v>
+        <v>14.58178471391915</v>
       </c>
       <c r="C82">
-        <v>14.03542269426758</v>
+        <v>14.45737323366198</v>
       </c>
       <c r="D82">
-        <v>13.60924421521679</v>
+        <v>14.55131626353769</v>
       </c>
       <c r="E82">
-        <v>14.04129005087524</v>
+        <v>14.54342492201097</v>
       </c>
       <c r="F82">
-        <v>14.07441945034621</v>
+        <v>14.53406868771341</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>14.2251061276603</v>
+        <v>14.66733624687809</v>
       </c>
       <c r="C83">
-        <v>14.14426670725349</v>
+        <v>14.57356929671048</v>
       </c>
       <c r="D83">
-        <v>13.72021090636487</v>
+        <v>14.66960137178766</v>
       </c>
       <c r="E83">
-        <v>14.16984915847079</v>
+        <v>14.66295276999462</v>
       </c>
       <c r="F83">
-        <v>14.19862949185171</v>
+        <v>14.65405874760563</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>14.33769398448632</v>
+        <v>14.74942580531965</v>
       </c>
       <c r="C84">
-        <v>14.24780173698125</v>
+        <v>14.68432077905901</v>
       </c>
       <c r="D84">
-        <v>13.82680614503542</v>
+        <v>14.78238209645755</v>
       </c>
       <c r="E84">
-        <v>14.29063788093888</v>
+        <v>14.77583585079805</v>
       </c>
       <c r="F84">
-        <v>14.31621501541809</v>
+        <v>14.76734302508836</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>14.44486850189515</v>
+        <v>14.82788567672018</v>
       </c>
       <c r="C85">
-        <v>14.34592531516778</v>
+        <v>14.78936502048732</v>
       </c>
       <c r="D85">
-        <v>13.92900260647962</v>
+        <v>14.88928690476085</v>
       </c>
       <c r="E85">
-        <v>14.40377115081495</v>
+        <v>14.88188380527882</v>
       </c>
       <c r="F85">
-        <v>14.42714480753294</v>
+        <v>14.87373127147674</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>14.54651021962025</v>
+        <v>14.90258079655061</v>
       </c>
       <c r="C86">
-        <v>14.43858548992593</v>
+        <v>14.88852143993673</v>
       </c>
       <c r="D86">
-        <v>14.0267995929432</v>
+        <v>14.99005738440112</v>
       </c>
       <c r="E86">
-        <v>14.50941143513313</v>
+        <v>14.98102401234929</v>
       </c>
       <c r="F86">
-        <v>14.53144485815137</v>
+        <v>14.97315271281682</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>14.64255057233854</v>
+        <v>14.9734078669092</v>
       </c>
       <c r="C87">
-        <v>14.52577365270416</v>
+        <v>14.9816836019762</v>
       </c>
       <c r="D87">
-        <v>14.12021845879806</v>
+        <v>15.08453892910394</v>
       </c>
       <c r="E87">
-        <v>14.60775484852586</v>
+        <v>15.07327698394168</v>
       </c>
       <c r="F87">
-        <v>14.62918609142551</v>
+        <v>15.06563088450093</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>14.73296952282785</v>
+        <v>15.040293513413</v>
       </c>
       <c r="C88">
-        <v>14.60751872391045</v>
+        <v>15.06880986783264</v>
       </c>
       <c r="D88">
-        <v>14.20929768108042</v>
+        <v>15.17266717985224</v>
       </c>
       <c r="E88">
-        <v>14.6990216947243</v>
+        <v>15.15873405592967</v>
       </c>
       <c r="F88">
-        <v>14.72047646701531</v>
+        <v>15.15126113314238</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>14.81778857091539</v>
+        <v>15.10319186442508</v>
       </c>
       <c r="C89">
-        <v>14.68388233654126</v>
+        <v>15.14991359904384</v>
       </c>
       <c r="D89">
-        <v>14.29409054144363</v>
+        <v>15.25445280667913</v>
       </c>
       <c r="E89">
-        <v>14.7834482507581</v>
+        <v>15.23753861589512</v>
       </c>
       <c r="F89">
-        <v>14.80545297851136</v>
+        <v>15.23019144299022</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>14.89706414914798</v>
+        <v>15.16208178861004</v>
       </c>
       <c r="C90">
-        <v>14.7549522988216</v>
+        <v>15.22505365604876</v>
       </c>
       <c r="D90">
-        <v>14.37466179470757</v>
+        <v>15.32996651689005</v>
       </c>
       <c r="E90">
-        <v>14.86128035640511</v>
+        <v>15.30987070992719</v>
       </c>
       <c r="F90">
-        <v>14.88427433013904</v>
+        <v>15.30260676355294</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>14.9708800760444</v>
+        <v>15.21696403712988</v>
       </c>
       <c r="C91">
-        <v>14.82083740900171</v>
+        <v>15.29432562370517</v>
       </c>
       <c r="D91">
-        <v>14.45108509266384</v>
+        <v>15.39932540635764</v>
       </c>
       <c r="E91">
-        <v>14.9327688683752</v>
+        <v>15.37593543728214</v>
       </c>
       <c r="F91">
-        <v>14.95711538059198</v>
+        <v>15.36871719649489</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>15.03934190513024</v>
+        <v>15.26785845432802</v>
       </c>
       <c r="C92">
-        <v>14.88166223237589</v>
+        <v>15.35785401126225</v>
       </c>
       <c r="D92">
-        <v>14.52344086634012</v>
+        <v>15.46268120559873</v>
       </c>
       <c r="E92">
-        <v>14.99816549623671</v>
+        <v>15.43595382353356</v>
       </c>
       <c r="F92">
-        <v>15.02416182118899</v>
+        <v>15.42874865192703</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>15.10257282525355</v>
+        <v>15.31480131730606</v>
       </c>
       <c r="C93">
-        <v>14.93756334044774</v>
+        <v>15.41578548106724</v>
       </c>
       <c r="D93">
-        <v>14.59181462327664</v>
+        <v>15.52021048918097</v>
       </c>
       <c r="E93">
-        <v>15.05772024904093</v>
+        <v>15.49015592456676</v>
       </c>
       <c r="F93">
-        <v>15.08560654792427</v>
+        <v>15.48293581047414</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>15.16070854983851</v>
+        <v>15.35784287520021</v>
       </c>
       <c r="C94">
-        <v>14.98868613725039</v>
+        <v>15.46828311404117</v>
       </c>
       <c r="D94">
-        <v>14.65629566647128</v>
+        <v>15.57210658864582</v>
       </c>
       <c r="E94">
-        <v>15.11167952132302</v>
+        <v>15.53877569636086</v>
       </c>
       <c r="F94">
-        <v>15.14164671198604</v>
+        <v>15.53151694339133</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>15.21389393051811</v>
+        <v>15.39704511082871</v>
       </c>
       <c r="C95">
-        <v>15.0351819308975</v>
+        <v>15.515521498837</v>
       </c>
       <c r="D95">
-        <v>14.71697592140935</v>
+        <v>15.61857348118651</v>
       </c>
       <c r="E95">
-        <v>15.16028451414806</v>
+        <v>15.58204735207869</v>
       </c>
       <c r="F95">
-        <v>15.19248110375413</v>
+        <v>15.57473020947609</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>15.26228090396717</v>
+        <v>15.43247973481578</v>
       </c>
       <c r="C96">
-        <v>15.07720527520072</v>
+        <v>15.55768286686726</v>
       </c>
       <c r="D96">
-        <v>14.77394876748771</v>
+        <v>15.65982102282242</v>
       </c>
       <c r="E96">
-        <v>15.20377019643083</v>
+        <v>15.62020261017764</v>
       </c>
       <c r="F96">
-        <v>15.23830797610658</v>
+        <v>15.6128108881792</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>15.30602558107972</v>
+        <v>15.46422639763969</v>
       </c>
       <c r="C97">
-        <v>15.1149124317798</v>
+        <v>15.59495399194606</v>
       </c>
       <c r="D97">
-        <v>14.82730850454135</v>
+        <v>15.69606123360513</v>
       </c>
       <c r="E97">
-        <v>15.24236453470312</v>
+        <v>15.65346877883504</v>
       </c>
       <c r="F97">
-        <v>15.27932379028642</v>
+        <v>15.64598943120188</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>15.34528633714149</v>
+        <v>15.49237109569629</v>
       </c>
       <c r="C98">
-        <v>15.148460020462</v>
+        <v>15.62752361227553</v>
       </c>
       <c r="D98">
-        <v>14.87714971416581</v>
+        <v>15.72750540789111</v>
       </c>
       <c r="E98">
-        <v>15.27628803650036</v>
+        <v>15.68206738370299</v>
       </c>
       <c r="F98">
-        <v>15.31572214405512</v>
+        <v>15.67449017510083</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>15.38022240487839</v>
+        <v>15.51700480864011</v>
       </c>
       <c r="C99">
-        <v>15.1780036759588</v>
+        <v>15.65558033290794</v>
       </c>
       <c r="D99">
-        <v>14.92356671072982</v>
+        <v>15.75436205862267</v>
       </c>
       <c r="E99">
-        <v>15.30575344425964</v>
+        <v>15.70621330599115</v>
       </c>
       <c r="F99">
-        <v>15.34769275530485</v>
+        <v>15.69853045507318</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>15.41099261365954</v>
+        <v>15.53822231478563</v>
       </c>
       <c r="C100">
-        <v>15.20369704907918</v>
+        <v>15.67931100393332</v>
       </c>
       <c r="D100">
-        <v>14.96665317799295</v>
+        <v>15.7768354691971</v>
       </c>
       <c r="E100">
-        <v>15.33096563025029</v>
+        <v>15.72611417328418</v>
       </c>
       <c r="F100">
-        <v>15.37542074504558</v>
+        <v>15.71832002288808</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>15.43775416624716</v>
+        <v>15.55612112864607</v>
       </c>
       <c r="C101">
-        <v>15.22569094901182</v>
+        <v>15.6988995248039</v>
       </c>
       <c r="D101">
-        <v>15.00650183058353</v>
+        <v>15.79512460119294</v>
       </c>
       <c r="E101">
-        <v>15.35212152343999</v>
+        <v>15.74197001145748</v>
       </c>
       <c r="F101">
-        <v>15.39908615255831</v>
+        <v>15.73406073715035</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>15.46066201980725</v>
+        <v>15.57080060893162</v>
       </c>
       <c r="C102">
-        <v>15.24413297671811</v>
+        <v>15.71452592200916</v>
       </c>
       <c r="D102">
-        <v>15.04320412823039</v>
+        <v>15.8094223569214</v>
       </c>
       <c r="E102">
-        <v>15.36941010001274</v>
+        <v>15.75397307356343</v>
       </c>
       <c r="F102">
-        <v>15.41886360816349</v>
+        <v>15.74594642527505</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>15.47986829633258</v>
+        <v>15.58236118744905</v>
       </c>
       <c r="C103">
-        <v>15.2591671014512</v>
+        <v>15.72636564071618</v>
       </c>
       <c r="D103">
-        <v>15.07685010642376</v>
+        <v>15.81991510171803</v>
       </c>
       <c r="E103">
-        <v>15.38301256077865</v>
+        <v>15.76230780892547</v>
       </c>
       <c r="F103">
-        <v>15.43492210925801</v>
+        <v>15.75416287451841</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>15.49552176998584</v>
+        <v>15.59090371640495</v>
       </c>
       <c r="C104">
-        <v>15.27093333703523</v>
+        <v>15.73458902778263</v>
       </c>
       <c r="D104">
-        <v>15.10752820102204</v>
+        <v>15.82678238614287</v>
       </c>
       <c r="E104">
-        <v>15.39310247442712</v>
+        <v>15.76715091754647</v>
       </c>
       <c r="F104">
-        <v>15.44742495630431</v>
+        <v>15.75888791251757</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>15.50776746077948</v>
+        <v>15.59652890651812</v>
       </c>
       <c r="C105">
-        <v>15.27956751608476</v>
+        <v>15.73936098569773</v>
       </c>
       <c r="D105">
-        <v>15.13532514322686</v>
+        <v>15.83019678393535</v>
       </c>
       <c r="E105">
-        <v>15.39984596333248</v>
+        <v>15.76867145205837</v>
       </c>
       <c r="F105">
-        <v>15.45652966464012</v>
+        <v>15.76029153486194</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>15.51674633475334</v>
+        <v>15.59933685322136</v>
       </c>
       <c r="C106">
-        <v>15.28520113463126</v>
+        <v>15.74084075737232</v>
       </c>
       <c r="D106">
-        <v>15.16032587970692</v>
+        <v>15.83032388099293</v>
       </c>
       <c r="E106">
-        <v>15.40340194937537</v>
+        <v>15.7670310099609</v>
       </c>
       <c r="F106">
-        <v>15.4623879052635</v>
+        <v>15.7585361285007</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>15.52259516181391</v>
+        <v>15.59942664147794</v>
       </c>
       <c r="C107">
-        <v>15.28796125563332</v>
+        <v>15.73918176796935</v>
       </c>
       <c r="D107">
-        <v>15.18261347300983</v>
+        <v>15.82732233024485</v>
       </c>
       <c r="E107">
-        <v>15.40392233573362</v>
+        <v>15.76238394990688</v>
       </c>
       <c r="F107">
-        <v>15.46514551710978</v>
+        <v>15.75377670527609</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>15.52544642137734</v>
+        <v>15.59689601453467</v>
       </c>
       <c r="C108">
-        <v>15.28797050199187</v>
+        <v>15.73453160054755</v>
       </c>
       <c r="D108">
-        <v>15.20226906572281</v>
+        <v>15.82134395304473</v>
       </c>
       <c r="E108">
-        <v>15.40155222813969</v>
+        <v>15.75487762638812</v>
       </c>
       <c r="F108">
-        <v>15.46494264389338</v>
+        <v>15.74616114700245</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>15.52542820235896</v>
+        <v>15.59184110630822</v>
       </c>
       <c r="C109">
-        <v>15.28534707600632</v>
+        <v>15.72703200559672</v>
       </c>
       <c r="D109">
-        <v>15.21937182858199</v>
+        <v>15.81253388872629</v>
       </c>
       <c r="E109">
-        <v>15.39643019585017</v>
+        <v>15.74465260450986</v>
       </c>
       <c r="F109">
-        <v>15.46191383156766</v>
+        <v>15.73583043844517</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>15.52266420145032</v>
+        <v>15.58435620655483</v>
       </c>
       <c r="C110">
-        <v>15.28020479675676</v>
+        <v>15.71681895760704</v>
       </c>
       <c r="D110">
-        <v>15.23399897136381</v>
+        <v>15.801030779505</v>
       </c>
       <c r="E110">
-        <v>15.38868852675366</v>
+        <v>15.73184292853126</v>
       </c>
       <c r="F110">
-        <v>15.45618817227946</v>
+        <v>15.72291895803376</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>15.5172736821332</v>
+        <v>15.57453355574672</v>
       </c>
       <c r="C111">
-        <v>15.27265318393525</v>
+        <v>15.70402274530319</v>
       </c>
       <c r="D111">
-        <v>15.2462257777364</v>
+        <v>15.78696697530673</v>
       </c>
       <c r="E111">
-        <v>15.37845350125997</v>
+        <v>15.71657637620182</v>
       </c>
       <c r="F111">
-        <v>15.447889428802</v>
+        <v>15.70755474079031</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>15.50937149360144</v>
+        <v>15.56246323904987</v>
       </c>
       <c r="C112">
-        <v>15.26279751664195</v>
+        <v>15.68876809272616</v>
       </c>
       <c r="D112">
-        <v>15.25612552454544</v>
+        <v>15.77046875200653</v>
       </c>
       <c r="E112">
-        <v>15.36584558124649</v>
+        <v>15.6989747170083</v>
       </c>
       <c r="F112">
-        <v>15.43713615985266</v>
+        <v>15.68985974720174</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>15.49906816568853</v>
+        <v>15.54823308177348</v>
       </c>
       <c r="C113">
-        <v>15.25073893875656</v>
+        <v>15.67117430374249</v>
       </c>
       <c r="D113">
-        <v>15.26376959862569</v>
+        <v>15.75165652534919</v>
       </c>
       <c r="E113">
-        <v>15.35097968926833</v>
+        <v>15.679153963844</v>
       </c>
       <c r="F113">
-        <v>15.4240419079978</v>
+        <v>15.66995012391346</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>15.48647003035287</v>
+        <v>15.53192856093001</v>
       </c>
       <c r="C114">
-        <v>15.23657455120382</v>
+        <v>15.65135542070017</v>
       </c>
       <c r="D114">
-        <v>15.26922743871509</v>
+        <v>15.73064508257696</v>
       </c>
       <c r="E114">
-        <v>15.33396542474075</v>
+        <v>15.65722462006103</v>
       </c>
       <c r="F114">
-        <v>15.40871535618887</v>
+        <v>15.64793646289917</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>15.47167935112461</v>
+        <v>15.51363272390454</v>
       </c>
       <c r="C115">
-        <v>15.22039753009644</v>
+        <v>15.62942039218528</v>
       </c>
       <c r="D115">
-        <v>15.27256658320248</v>
+        <v>15.70754381835541</v>
       </c>
       <c r="E115">
-        <v>15.3149072973849</v>
+        <v>15.63329192351542</v>
       </c>
       <c r="F115">
-        <v>15.39126050157817</v>
+        <v>15.62392404419952</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>15.45479429100432</v>
+        <v>15.4934261531772</v>
       </c>
       <c r="C116">
-        <v>15.20229726170964</v>
+        <v>15.60547324865411</v>
       </c>
       <c r="D116">
-        <v>15.27385270138482</v>
+        <v>15.68245696204067</v>
       </c>
       <c r="E116">
-        <v>15.29390494565899</v>
+        <v>15.60745608357489</v>
       </c>
       <c r="F116">
-        <v>15.3717768250659</v>
+        <v>15.59801309172603</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>15.43590905654473</v>
+        <v>15.47138695789331</v>
       </c>
       <c r="C117">
-        <v>15.18235945920958</v>
+        <v>15.5796132734377</v>
       </c>
       <c r="D117">
-        <v>15.27314960200725</v>
+        <v>15.65548379685667</v>
       </c>
       <c r="E117">
-        <v>15.2710533506882</v>
+        <v>15.57981249165501</v>
       </c>
       <c r="F117">
-        <v>15.35035945621091</v>
+        <v>15.57029898393033</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>15.4151140496334</v>
+        <v>15.44759076375739</v>
       </c>
       <c r="C118">
-        <v>15.16066628659175</v>
+        <v>15.55193517883834</v>
       </c>
       <c r="D118">
-        <v>15.27051928430939</v>
+        <v>15.62671886456393</v>
       </c>
       <c r="E118">
-        <v>15.24644304465168</v>
+        <v>15.55045197037248</v>
       </c>
       <c r="F118">
-        <v>15.32709933783502</v>
+        <v>15.54087249815164</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>15.39249586919333</v>
+        <v>15.42211072141551</v>
       </c>
       <c r="C119">
-        <v>15.13729648146999</v>
+        <v>15.52252930446526</v>
       </c>
       <c r="D119">
-        <v>15.26602198455286</v>
+        <v>15.5962521858869</v>
       </c>
       <c r="E119">
-        <v>15.22016030145785</v>
+        <v>15.51946097080082</v>
       </c>
       <c r="F119">
-        <v>15.30208338938418</v>
+        <v>15.50982003328133</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>15.36813763537093</v>
+        <v>15.39501752467658</v>
       </c>
       <c r="C120">
-        <v>15.11232547640417</v>
+        <v>15.49148178213355</v>
       </c>
       <c r="D120">
-        <v>15.25971620678908</v>
+        <v>15.56416946618672</v>
       </c>
       <c r="E120">
-        <v>15.19228735707046</v>
+        <v>15.48692176940709</v>
       </c>
       <c r="F120">
-        <v>15.27539466744977</v>
+        <v>15.47722379403377</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>15.34211885189547</v>
+        <v>15.36637943378957</v>
       </c>
       <c r="C121">
-        <v>15.08582552019764</v>
+        <v>15.45887471757595</v>
       </c>
       <c r="D121">
-        <v>15.25165876912093</v>
+        <v>15.53055229045438</v>
       </c>
       <c r="E121">
-        <v>15.16290253791201</v>
+        <v>15.45291268262328</v>
       </c>
       <c r="F121">
-        <v>15.2471125200053</v>
+        <v>15.44316199373487</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>15.3145158137823</v>
+        <v>15.33626231324138</v>
       </c>
       <c r="C122">
-        <v>15.05786579988663</v>
+        <v>15.42478635859023</v>
       </c>
       <c r="D122">
-        <v>15.24190483270388</v>
+        <v>15.49547831443351</v>
       </c>
       <c r="E122">
-        <v>15.13208053861598</v>
+        <v>15.41750822531609</v>
       </c>
       <c r="F122">
-        <v>15.21731274945466</v>
+        <v>15.40770906101798</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>15.2854014896928</v>
+        <v>15.30472966985311</v>
       </c>
       <c r="C123">
-        <v>15.02851255906898</v>
+        <v>15.38929124617692</v>
       </c>
       <c r="D123">
-        <v>15.23050793434887</v>
+        <v>15.45902144720187</v>
       </c>
       <c r="E123">
-        <v>15.09989245442969</v>
+        <v>15.38077930866562</v>
       </c>
       <c r="F123">
-        <v>15.18606773821521</v>
+        <v>15.37093580128562</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>15.2548458116922</v>
+        <v>15.27184269872119</v>
       </c>
       <c r="C124">
-        <v>14.99782921408327</v>
+        <v>15.35246039433096</v>
       </c>
       <c r="D124">
-        <v>15.21752004346116</v>
+        <v>15.42125202204853</v>
       </c>
       <c r="E124">
-        <v>15.06640609745763</v>
+        <v>15.34279341698917</v>
       </c>
       <c r="F124">
-        <v>15.15344662900747</v>
+        <v>15.33290957689214</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>15.22291569072392</v>
+        <v>15.23766033313114</v>
       </c>
       <c r="C125">
-        <v>14.96587646393134</v>
+        <v>15.31436144260575</v>
       </c>
       <c r="D125">
-        <v>15.20299158797846</v>
+        <v>15.38223697291942</v>
       </c>
       <c r="E125">
-        <v>15.03168599252892</v>
+        <v>15.30361475421818</v>
       </c>
       <c r="F125">
-        <v>15.11951542507981</v>
+        <v>15.29369448379863</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>15.18967515757377</v>
+        <v>15.20223929778053</v>
       </c>
       <c r="C126">
-        <v>14.93271240126303</v>
+        <v>15.27505880505357</v>
       </c>
       <c r="D126">
-        <v>15.18697150366202</v>
+        <v>15.34203998453443</v>
       </c>
       <c r="E126">
-        <v>14.99579366961048</v>
+        <v>15.26330440694298</v>
       </c>
       <c r="F126">
-        <v>15.08433716055674</v>
+        <v>15.25335148904828</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>15.15518547427853</v>
+        <v>15.16563416596169</v>
       </c>
       <c r="C127">
-        <v>14.89839261674624</v>
+        <v>15.23461381714006</v>
       </c>
       <c r="D127">
-        <v>15.16950726865978</v>
+        <v>15.30072167597705</v>
       </c>
       <c r="E127">
-        <v>14.95878768206778</v>
+        <v>15.22192050673748</v>
       </c>
       <c r="F127">
-        <v>15.04797199554314</v>
+        <v>15.21193859408797</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>15.11950522299949</v>
+        <v>15.12789741607268</v>
       </c>
       <c r="C128">
-        <v>14.86297030381486</v>
+        <v>15.19308488230906</v>
       </c>
       <c r="D128">
-        <v>15.1506449463316</v>
+        <v>15.25833970198986</v>
       </c>
       <c r="E128">
-        <v>14.92072384652783</v>
+        <v>15.17951835060077</v>
       </c>
       <c r="F128">
-        <v>15.0104773615173</v>
+        <v>15.16951098124299</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>15.0826904398297</v>
+        <v>15.08907949064284</v>
       </c>
       <c r="C129">
-        <v>14.82649635708168</v>
+        <v>15.15052759799672</v>
       </c>
       <c r="D129">
-        <v>15.13042922073592</v>
+        <v>15.21494895000562</v>
       </c>
       <c r="E129">
-        <v>14.88165529791373</v>
+        <v>15.13615054951185</v>
       </c>
       <c r="F129">
-        <v>14.97190807626859</v>
+        <v>15.12612113706941</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>15.04479470743064</v>
+        <v>15.04922885791994</v>
       </c>
       <c r="C130">
-        <v>14.78901947071445</v>
+        <v>15.10699488938416</v>
       </c>
       <c r="D130">
-        <v>15.10890343792807</v>
+        <v>15.17060160243176</v>
       </c>
       <c r="E130">
-        <v>14.8416326726962</v>
+        <v>15.091867162545</v>
       </c>
       <c r="F130">
-        <v>14.93231644319769</v>
+        <v>15.08181899337649</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>15.0058692397931</v>
+        <v>15.00839206868327</v>
       </c>
       <c r="C131">
-        <v>14.75058622093376</v>
+        <v>15.06253712685472</v>
       </c>
       <c r="D131">
-        <v>15.08610963949569</v>
+        <v>15.12534734295878</v>
       </c>
       <c r="E131">
-        <v>14.80070417577435</v>
+        <v>15.04671580534081</v>
       </c>
       <c r="F131">
-        <v>14.89175239653594</v>
+        <v>15.03665205137182</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>14.96596301112781</v>
+        <v>14.96661381762458</v>
       </c>
       <c r="C132">
-        <v>14.7112411673768</v>
+        <v>15.01720226048604</v>
       </c>
       <c r="D132">
-        <v>15.06208859927115</v>
+        <v>15.07923339002265</v>
       </c>
       <c r="E132">
-        <v>14.75891574063692</v>
+        <v>15.00074177913357</v>
       </c>
       <c r="F132">
-        <v>14.85026356796728</v>
+        <v>14.99066548952261</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>14.92512283288636</v>
+        <v>14.92393699803532</v>
       </c>
       <c r="C133">
-        <v>14.67102691930978</v>
+        <v>14.97103592257747</v>
       </c>
       <c r="D133">
-        <v>15.03687986236715</v>
+        <v>15.03230470573169</v>
       </c>
       <c r="E133">
-        <v>14.71631109695007</v>
+        <v>14.95398818227505</v>
       </c>
       <c r="F133">
-        <v>14.8078954283942</v>
+        <v>14.9439022864735</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>14.88339346407139</v>
+        <v>14.88040277880642</v>
       </c>
       <c r="C134">
-        <v>14.6299842421761</v>
+        <v>14.92408153649021</v>
       </c>
       <c r="D134">
-        <v>15.01052178249431</v>
+        <v>14.98460402676688</v>
       </c>
       <c r="E134">
-        <v>14.67293190275469</v>
+        <v>14.90649600784788</v>
       </c>
       <c r="F134">
-        <v>14.76469134589928</v>
+        <v>14.89640332538964</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>14.8408176488261</v>
+        <v>14.83605064667459</v>
       </c>
       <c r="C135">
-        <v>14.58815210733115</v>
+        <v>14.87638046415338</v>
       </c>
       <c r="D135">
-        <v>14.98305153544219</v>
+        <v>14.93617204790598</v>
       </c>
       <c r="E135">
-        <v>14.62881782428446</v>
+        <v>14.85830425585455</v>
       </c>
       <c r="F135">
-        <v>14.72069271447582</v>
+        <v>14.84820748989057</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>14.79743626291287</v>
+        <v>14.79091847446148</v>
       </c>
       <c r="C136">
-        <v>14.54556780418022</v>
+        <v>14.82797199775486</v>
       </c>
       <c r="D136">
-        <v>14.95450519496154</v>
+        <v>14.88704743840537</v>
       </c>
       <c r="E136">
-        <v>14.58400663600383</v>
+        <v>14.80945002615369</v>
       </c>
       <c r="F136">
-        <v>14.67593901614537</v>
+        <v>14.79935176985425</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>14.75328834598307</v>
+        <v>14.74504257927286</v>
       </c>
       <c r="C137">
-        <v>14.50226697240738</v>
+        <v>14.77889361791471</v>
       </c>
       <c r="D137">
-        <v>14.92491772367085</v>
+        <v>14.83726702848506</v>
       </c>
       <c r="E137">
-        <v>14.53853431761855</v>
+        <v>14.75996860595551</v>
       </c>
       <c r="F137">
-        <v>14.63046792159009</v>
+        <v>14.74987134674926</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>14.70841121156602</v>
+        <v>14.69845776951261</v>
       </c>
       <c r="C138">
-        <v>14.45828371812633</v>
+        <v>14.7291808841842</v>
       </c>
       <c r="D138">
-        <v>14.89432302198291</v>
+        <v>14.78686580981444</v>
       </c>
       <c r="E138">
-        <v>14.49243511871835</v>
+        <v>14.70989355553958</v>
       </c>
       <c r="F138">
-        <v>14.58431537194664</v>
+        <v>14.69979966882279</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>14.66284049321724</v>
+        <v>14.65119741319227</v>
       </c>
       <c r="C139">
-        <v>14.41365062921363</v>
+        <v>14.67886772526471</v>
       </c>
       <c r="D139">
-        <v>14.86275398084421</v>
+        <v>14.73587710853158</v>
       </c>
       <c r="E139">
-        <v>14.4457416746692</v>
+        <v>14.65925680430708</v>
       </c>
       <c r="F139">
-        <v>14.53751564230271</v>
+        <v>14.64916859006167</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>14.61661024164722</v>
+        <v>14.60329346743321</v>
       </c>
       <c r="C140">
-        <v>14.36839889269333</v>
+        <v>14.62798633580462</v>
       </c>
       <c r="D140">
-        <v>14.83024245068951</v>
+        <v>14.6843325857763</v>
       </c>
       <c r="E140">
-        <v>14.39848503762213</v>
+        <v>14.60808873232367</v>
       </c>
       <c r="F140">
-        <v>14.49010144568205</v>
+        <v>14.59800834468485</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>14.56975297654337</v>
+        <v>14.55477655813553</v>
       </c>
       <c r="C141">
-        <v>14.32255830376068</v>
+        <v>14.57656741294246</v>
       </c>
       <c r="D141">
-        <v>14.796819349095</v>
+        <v>14.63226239178833</v>
       </c>
       <c r="E141">
-        <v>14.35069480639338</v>
+        <v>14.55641821169975</v>
       </c>
       <c r="F141">
-        <v>14.44210396903522</v>
+        <v>14.5463477831336</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>14.52229976160063</v>
+        <v>14.50567601677407</v>
       </c>
       <c r="C142">
-        <v>14.27615737418792</v>
+        <v>14.52464010667364</v>
       </c>
       <c r="D142">
-        <v>14.76251463494176</v>
+        <v>14.57969517459203</v>
       </c>
       <c r="E142">
-        <v>14.30239913651591</v>
+        <v>14.50427278048765</v>
       </c>
       <c r="F142">
-        <v>14.39355297716382</v>
+        <v>14.4942142802921</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>14.47428026902254</v>
+        <v>14.45601993708201</v>
       </c>
       <c r="C143">
-        <v>14.22922334355842</v>
+        <v>14.47223218480097</v>
       </c>
       <c r="D143">
-        <v>14.72735734070578</v>
+        <v>14.52665821023383</v>
       </c>
       <c r="E143">
-        <v>14.25362486639029</v>
+        <v>14.45167851728206</v>
       </c>
       <c r="F143">
-        <v>14.34447684679819</v>
+        <v>14.44163388866716</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>14.42572283137682</v>
+        <v>14.40583521373535</v>
       </c>
       <c r="C144">
-        <v>14.18178227504779</v>
+        <v>14.41937004879895</v>
       </c>
       <c r="D144">
-        <v>14.6913756363998</v>
+        <v>14.47317741920752</v>
       </c>
       <c r="E144">
-        <v>14.20439752548213</v>
+        <v>14.39866035511655</v>
       </c>
       <c r="F144">
-        <v>14.29490265488682</v>
+        <v>14.3886314239832</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>14.37665451939768</v>
+        <v>14.35514760333237</v>
       </c>
       <c r="C145">
-        <v>14.13385906973191</v>
+        <v>14.36607882419185</v>
       </c>
       <c r="D145">
-        <v>14.65459680294252</v>
+        <v>14.41927747786346</v>
       </c>
       <c r="E145">
-        <v>14.15474144674021</v>
+        <v>14.34524190609873</v>
       </c>
       <c r="F145">
-        <v>14.2448562203552</v>
+        <v>14.33523041369564</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>14.3271011703445</v>
+        <v>14.303981755001</v>
       </c>
       <c r="C146">
-        <v>14.08547755124808</v>
+        <v>14.31238242077153</v>
       </c>
       <c r="D146">
-        <v>14.61704730714357</v>
+        <v>14.36498183803698</v>
       </c>
       <c r="E146">
-        <v>14.10467977788089</v>
+        <v>14.29144568253037</v>
       </c>
       <c r="F146">
-        <v>14.19436217021832</v>
+        <v>14.2814533154457</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>14.27708747462596</v>
+        <v>14.25236126777789</v>
       </c>
       <c r="C147">
-        <v>14.03666048082402</v>
+        <v>14.25830356184937</v>
       </c>
       <c r="D147">
-        <v>14.57875280249271</v>
+        <v>14.31031282329758</v>
       </c>
       <c r="E147">
-        <v>14.05423457889559</v>
+        <v>14.23729308507656</v>
       </c>
       <c r="F147">
-        <v>14.143443995898</v>
+        <v>14.22732141142482</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>14.22663699204518</v>
+        <v>14.20030872066255</v>
       </c>
       <c r="C148">
-        <v>13.98742963330927</v>
+        <v>14.20386389725158</v>
       </c>
       <c r="D148">
-        <v>14.53973814374766</v>
+        <v>14.25529165111792</v>
       </c>
       <c r="E148">
-        <v>14.00342683741372</v>
+        <v>14.18280444366666</v>
       </c>
       <c r="F148">
-        <v>14.09212409313002</v>
+        <v>14.17285500354256</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>14.17577223448158</v>
+        <v>14.147845724393</v>
       </c>
       <c r="C149">
-        <v>13.9378058124403</v>
+        <v>14.14908397245765</v>
       </c>
       <c r="D149">
-        <v>14.50002744641461</v>
+        <v>14.19993851472584</v>
       </c>
       <c r="E149">
-        <v>13.95227655178574</v>
+        <v>14.12799913056531</v>
       </c>
       <c r="F149">
-        <v>14.04042383314645</v>
+        <v>14.11807335458594</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>14.12451468260358</v>
+        <v>14.09499295309057</v>
       </c>
       <c r="C150">
-        <v>13.88780891833563</v>
+        <v>14.09398337555824</v>
       </c>
       <c r="D150">
-        <v>14.45964406627448</v>
+        <v>14.14427260966522</v>
       </c>
       <c r="E150">
-        <v>13.90080275066467</v>
+        <v>14.07289552726955</v>
       </c>
       <c r="F150">
-        <v>13.98836358476995</v>
+        <v>14.06299481154122</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>14.07288485776243</v>
+        <v>14.04177018752052</v>
       </c>
       <c r="C151">
-        <v>13.83745796458743</v>
+        <v>14.03858069541629</v>
       </c>
       <c r="D151">
-        <v>14.41861065247934</v>
+        <v>14.08831220052444</v>
       </c>
       <c r="E151">
-        <v>13.84902356218725</v>
+        <v>14.01751116421328</v>
       </c>
       <c r="F151">
-        <v>13.93596278443011</v>
+        <v>14.00763682084433</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>14.02090234297872</v>
+        <v>13.98819634975759</v>
       </c>
       <c r="C152">
-        <v>13.78677113630589</v>
+        <v>13.9828936494079</v>
       </c>
       <c r="D152">
-        <v>14.37694916662831</v>
+        <v>14.03207465330561</v>
       </c>
       <c r="E152">
-        <v>13.79695623854372</v>
+        <v>13.9618626710682</v>
       </c>
       <c r="F152">
-        <v>13.8832399581994</v>
+        <v>13.95201596812957</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>13.96858584249073</v>
+        <v>13.9342895381737</v>
       </c>
       <c r="C153">
-        <v>13.73576581024989</v>
+        <v>13.92693906199678</v>
       </c>
       <c r="D153">
-        <v>14.3346808738147</v>
+        <v>13.97557648722633</v>
       </c>
       <c r="E153">
-        <v>13.74461721114552</v>
+        <v>13.90596591123065</v>
       </c>
       <c r="F153">
-        <v>13.83021278017012</v>
+        <v>13.89614805608693</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>13.9159532078582</v>
+        <v>13.88006706513482</v>
       </c>
       <c r="C154">
-        <v>13.684458603244</v>
+        <v>13.87073296761217</v>
       </c>
       <c r="D154">
-        <v>14.29182641122303</v>
+        <v>13.9188334128985</v>
       </c>
       <c r="E154">
-        <v>13.69202212134928</v>
+        <v>13.84983594494436</v>
       </c>
       <c r="F154">
-        <v>13.77689810045285</v>
+        <v>13.84004807057345</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>13.86302148475731</v>
+        <v>13.82554548352534</v>
       </c>
       <c r="C155">
-        <v>13.6328653954575</v>
+        <v>13.81429058791542</v>
       </c>
       <c r="D155">
-        <v>14.24840576768739</v>
+        <v>13.86186037018067</v>
       </c>
       <c r="E155">
-        <v>13.63918586136557</v>
+        <v>13.79348709876605</v>
       </c>
       <c r="F155">
-        <v>13.72331198797278</v>
+        <v>13.78373031850466</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>13.8098069452084</v>
+        <v>13.77074062807542</v>
       </c>
       <c r="C156">
-        <v>13.58100136976903</v>
+        <v>13.7576264206922</v>
       </c>
       <c r="D156">
-        <v>14.20443831706871</v>
+        <v>13.80467157180789</v>
       </c>
       <c r="E156">
-        <v>13.58612261200507</v>
+        <v>13.73693301645624</v>
       </c>
       <c r="F156">
-        <v>13.6694697686122</v>
+        <v>13.72720834315145</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>13.75632512065644</v>
+        <v>13.71566763316591</v>
       </c>
       <c r="C157">
-        <v>13.52888103801533</v>
+        <v>13.70075424848776</v>
       </c>
       <c r="D157">
-        <v>14.15994285096442</v>
+        <v>13.74728052835407</v>
       </c>
       <c r="E157">
-        <v>13.53284586933354</v>
+        <v>13.6801866328284</v>
       </c>
       <c r="F157">
-        <v>13.61538605046987</v>
+        <v>13.67049507155237</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>13.70259084222466</v>
+        <v>13.6603409779413</v>
       </c>
       <c r="C158">
-        <v>13.47651827189705</v>
+        <v>13.64368717575966</v>
       </c>
       <c r="D158">
-        <v>14.1149375619361</v>
+        <v>13.6897000971093</v>
       </c>
       <c r="E158">
-        <v>13.47936848989134</v>
+        <v>13.62326029017153</v>
       </c>
       <c r="F158">
-        <v>13.56107477139829</v>
+        <v>13.61360277127761</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>13.64861825941846</v>
+        <v>13.6047744965895</v>
       </c>
       <c r="C159">
-        <v>13.42392633225372</v>
+        <v>13.58643767654009</v>
       </c>
       <c r="D159">
-        <v>14.06944010382291</v>
+        <v>13.63194249512976</v>
       </c>
       <c r="E159">
-        <v>13.42570270359423</v>
+        <v>13.56616568747583</v>
       </c>
       <c r="F159">
-        <v>13.50654921317188</v>
+        <v>13.55654311006983</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>13.59442088799941</v>
+        <v>13.54898142447882</v>
       </c>
       <c r="C160">
-        <v>13.37111789190638</v>
+        <v>13.52901759692672</v>
       </c>
       <c r="D160">
-        <v>14.02346757892335</v>
+        <v>13.57401935276815</v>
       </c>
       <c r="E160">
-        <v>13.37186016537488</v>
+        <v>13.50891397918662</v>
       </c>
       <c r="F160">
-        <v>13.45182204388138</v>
+        <v>13.49932719404102</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>13.54001161926992</v>
+        <v>13.49297440488565</v>
       </c>
       <c r="C161">
-        <v>13.31810506808488</v>
+        <v>13.47143822212173</v>
       </c>
       <c r="D161">
-        <v>13.97703655687933</v>
+        <v>13.51594171758694</v>
       </c>
       <c r="E161">
-        <v>13.31785195912035</v>
+        <v>13.45151575757883</v>
       </c>
       <c r="F161">
-        <v>13.39690533155264</v>
+        <v>13.44196557480766</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>13.48540276688612</v>
+        <v>13.43676553276743</v>
       </c>
       <c r="C162">
-        <v>13.26489943754497</v>
+        <v>13.41371026431887</v>
       </c>
       <c r="D162">
-        <v>13.93016311351585</v>
+        <v>13.4577201083673</v>
       </c>
       <c r="E162">
-        <v>13.26368864789472</v>
+        <v>13.39398110724833</v>
       </c>
       <c r="F162">
-        <v>13.3418106066361</v>
+        <v>13.38446830729172</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>13.43060607566444</v>
+        <v>13.38036636067628</v>
       </c>
       <c r="C163">
-        <v>13.21151207217592</v>
+        <v>13.35584393163133</v>
       </c>
       <c r="D163">
-        <v>13.88286281009328</v>
+        <v>13.39936451560557</v>
       </c>
       <c r="E163">
-        <v>13.20938027719772</v>
+        <v>13.33631961805037</v>
       </c>
       <c r="F163">
-        <v>13.28654883533181</v>
+        <v>13.32684492068053</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>13.37563275965703</v>
+        <v>13.32378793889713</v>
       </c>
       <c r="C164">
-        <v>13.15795354679726</v>
+        <v>13.29784891033644</v>
       </c>
       <c r="D164">
-        <v>13.8351507443117</v>
+        <v>13.34088445145068</v>
       </c>
       <c r="E164">
-        <v>13.1549364197997</v>
+        <v>13.27854039505978</v>
       </c>
       <c r="F164">
-        <v>13.23113049052068</v>
+        <v>13.26910451236802</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>13.32049351005618</v>
+        <v>13.26704082138596</v>
       </c>
       <c r="C165">
-        <v>13.10423397741601</v>
+        <v>13.23973443418909</v>
       </c>
       <c r="D165">
-        <v>13.78704154608871</v>
+        <v>13.28228895021533</v>
       </c>
       <c r="E165">
-        <v>13.10036617976189</v>
+        <v>13.22065212210027</v>
       </c>
       <c r="F165">
-        <v>13.17556559462697</v>
+        <v>13.21125570630788</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>13.26519855285739</v>
+        <v>13.21013510200889</v>
       </c>
       <c r="C166">
-        <v>13.05036302414008</v>
+        <v>13.18150926220774</v>
       </c>
       <c r="D166">
-        <v>13.73854938407447</v>
+        <v>13.22358661313467</v>
       </c>
       <c r="E166">
-        <v>13.04567823173109</v>
+        <v>13.162663028068</v>
       </c>
       <c r="F166">
-        <v>13.11986360747757</v>
+        <v>13.15330671854138</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>13.20975762928922</v>
+        <v>13.15308042087359</v>
       </c>
       <c r="C167">
-        <v>12.99634992727002</v>
+        <v>13.12318174359754</v>
       </c>
       <c r="D167">
-        <v>13.68968800629111</v>
+        <v>13.16478560937237</v>
       </c>
       <c r="E167">
-        <v>12.99088082624903</v>
+        <v>13.10458096626334</v>
       </c>
       <c r="F167">
-        <v>13.06403364559725</v>
+        <v>13.0952653577134</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>13.15418003429887</v>
+        <v>13.09588599392491</v>
       </c>
       <c r="C168">
-        <v>12.94220350199769</v>
+        <v>13.06475980428021</v>
       </c>
       <c r="D168">
-        <v>13.64047072402187</v>
+        <v>13.1058937158128</v>
       </c>
       <c r="E168">
-        <v>12.93598181965858</v>
+        <v>13.04641337835238</v>
       </c>
       <c r="F168">
-        <v>13.0080843754704</v>
+        <v>13.03713904001448</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>13.09847468370526</v>
+        <v>13.03856061839283</v>
       </c>
       <c r="C169">
-        <v>12.88793219256311</v>
+        <v>13.00625098710494</v>
       </c>
       <c r="D169">
-        <v>13.59091044395154</v>
+        <v>13.04691831885335</v>
       </c>
       <c r="E169">
-        <v>12.88098868163059</v>
+        <v>12.98816735710976</v>
       </c>
       <c r="F169">
-        <v>12.9520240050279</v>
+        <v>12.97893483109948</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>13.04265002172169</v>
+        <v>12.98111271874232</v>
       </c>
       <c r="C170">
-        <v>12.83354407054764</v>
+        <v>12.94766246420674</v>
       </c>
       <c r="D170">
-        <v>13.54101967907633</v>
+        <v>12.98786644936321</v>
       </c>
       <c r="E170">
-        <v>12.82590854240854</v>
+        <v>12.92984963999914</v>
       </c>
       <c r="F170">
-        <v>12.89586042736193</v>
+        <v>12.92065943223842</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>12.98671413943564</v>
+        <v>12.92355033398082</v>
       </c>
       <c r="C171">
-        <v>12.77904681580699</v>
+        <v>12.8890010508044</v>
       </c>
       <c r="D171">
-        <v>13.49081054404757</v>
+        <v>12.92874478551605</v>
       </c>
       <c r="E171">
-        <v>12.77074817013037</v>
+        <v>12.87146662969144</v>
       </c>
       <c r="F171">
-        <v>12.83960113347347</v>
+        <v>12.86231923291116</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>12.93067479063222</v>
+        <v>12.86588113394817</v>
       </c>
       <c r="C172">
-        <v>12.72444782267289</v>
+        <v>12.83027323445752</v>
       </c>
       <c r="D172">
-        <v>13.44029479443586</v>
+        <v>12.86955967983968</v>
       </c>
       <c r="E172">
-        <v>12.71551400923184</v>
+        <v>12.81302442308973</v>
       </c>
       <c r="F172">
-        <v>12.78325325480903</v>
+        <v>12.80392028915642</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>12.87453929272109</v>
+        <v>12.80811248970201</v>
       </c>
       <c r="C173">
-        <v>12.66975414470507</v>
+        <v>12.771485173918</v>
       </c>
       <c r="D173">
-        <v>13.38948381472301</v>
+        <v>12.81031716262462</v>
       </c>
       <c r="E173">
-        <v>12.66021223268822</v>
+        <v>12.75452880349169</v>
       </c>
       <c r="F173">
-        <v>12.72682361869835</v>
+        <v>12.74546837599461</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>12.81831469679745</v>
+        <v>12.75025140973257</v>
       </c>
       <c r="C174">
-        <v>12.61497246623443</v>
+        <v>12.71264273578193</v>
       </c>
       <c r="D174">
-        <v>13.33838863797567</v>
+        <v>12.75102298580103</v>
       </c>
       <c r="E174">
-        <v>12.60484865871227</v>
+        <v>12.69598528581458</v>
       </c>
       <c r="F174">
-        <v>12.67031870172659</v>
+        <v>12.68696897378835</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>12.76200771877516</v>
+        <v>12.69230457780619</v>
       </c>
       <c r="C175">
-        <v>12.56010925454701</v>
+        <v>12.65375148595544</v>
       </c>
       <c r="D175">
-        <v>13.28701996503375</v>
+        <v>12.69168260511351</v>
       </c>
       <c r="E175">
-        <v>12.5494288513994</v>
+        <v>12.63739909549309</v>
       </c>
       <c r="F175">
-        <v>12.61374469649623</v>
+        <v>12.62842729492684</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>12.70562472779179</v>
+        <v>12.6342784322184</v>
       </c>
       <c r="C176">
-        <v>12.50517066146801</v>
+        <v>12.59481672846171</v>
       </c>
       <c r="D176">
-        <v>13.23538815309687</v>
+        <v>12.63230119879649</v>
       </c>
       <c r="E176">
-        <v>12.49395813828168</v>
+        <v>12.57877521694</v>
       </c>
       <c r="F176">
-        <v>12.55710751195246</v>
+        <v>12.56984829956617</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>12.64917184337672</v>
+        <v>12.57617907978412</v>
       </c>
       <c r="C177">
-        <v>12.45016252496291</v>
+        <v>12.53584349338926</v>
       </c>
       <c r="D177">
-        <v>13.18350325282024</v>
+        <v>12.57288373162712</v>
       </c>
       <c r="E177">
-        <v>12.43844152281093</v>
+        <v>12.52011837844747</v>
       </c>
       <c r="F177">
-        <v>12.50041275691672</v>
+        <v>12.51123669328177</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>12.59265489085246</v>
+        <v>12.51801235387615</v>
       </c>
       <c r="C178">
-        <v>12.39509048138829</v>
+        <v>12.47683657479798</v>
       </c>
       <c r="D178">
-        <v>13.13137499931304</v>
+        <v>12.51343488512622</v>
       </c>
       <c r="E178">
-        <v>12.38288381378194</v>
+        <v>12.4614330772978</v>
       </c>
       <c r="F178">
-        <v>12.44366580889273</v>
+        <v>12.45259696217935</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>12.53607940926407</v>
+        <v>12.45978386077776</v>
       </c>
       <c r="C179">
-        <v>12.33995989240107</v>
+        <v>12.41780051961178</v>
       </c>
       <c r="D179">
-        <v>13.07901282331408</v>
+        <v>12.45395910116067</v>
       </c>
       <c r="E179">
-        <v>12.32728958946724</v>
+        <v>12.40272359255919</v>
       </c>
       <c r="F179">
-        <v>12.38687178191263</v>
+        <v>12.39393335640428</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>12.47945071248228</v>
+        <v>12.4014989233035</v>
       </c>
       <c r="C180">
-        <v>12.28477586283375</v>
+        <v>12.35873965829855</v>
       </c>
       <c r="D180">
-        <v>13.02642587394472</v>
+        <v>12.3944606530706</v>
       </c>
       <c r="E180">
-        <v>12.27166316607318</v>
+        <v>12.34399398327945</v>
       </c>
       <c r="F180">
-        <v>12.33003553085711</v>
+        <v>12.33524992944735</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>12.42277385748543</v>
+        <v>12.34316263380377</v>
       </c>
       <c r="C181">
-        <v>12.22954330156667</v>
+        <v>12.2996581026234</v>
       </c>
       <c r="D181">
-        <v>12.97362300645296</v>
+        <v>12.33494355641815</v>
       </c>
       <c r="E181">
-        <v>12.21600868954351</v>
+        <v>12.28524811859556</v>
       </c>
       <c r="F181">
-        <v>12.27316171651379</v>
+        <v>12.27655052361147</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>12.36605366340152</v>
+        <v>12.28477987278976</v>
       </c>
       <c r="C182">
-        <v>12.17426688297009</v>
+        <v>12.24055976225883</v>
       </c>
       <c r="D182">
-        <v>12.92061281170465</v>
+        <v>12.27541163033184</v>
       </c>
       <c r="E182">
-        <v>12.16033009648299</v>
+        <v>12.22648966403651</v>
       </c>
       <c r="F182">
-        <v>12.21625475795107</v>
+        <v>12.21783879708291</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>12.30929475131455</v>
+        <v>12.22635527852729</v>
       </c>
       <c r="C183">
-        <v>12.1189510651936</v>
+        <v>12.18144835474742</v>
       </c>
       <c r="D183">
-        <v>12.8674036135948</v>
+        <v>12.21586853483445</v>
       </c>
       <c r="E183">
-        <v>12.10463111100254</v>
+        <v>12.16772211489958</v>
       </c>
       <c r="F183">
-        <v>12.1593188699698</v>
+        <v>12.15911822543462</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>12.25250150693525</v>
+        <v>12.16789329447982</v>
       </c>
       <c r="C184">
-        <v>12.06360012940654</v>
+        <v>12.12232741015795</v>
       </c>
       <c r="D184">
-        <v>12.81400347295696</v>
+        <v>12.15631771666948</v>
       </c>
       <c r="E184">
-        <v>12.04891530427594</v>
+        <v>12.10894878437439</v>
       </c>
       <c r="F184">
-        <v>12.1023580839897</v>
+        <v>12.1003921087912</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>12.19567811975262</v>
+        <v>12.10939817453922</v>
       </c>
       <c r="C185">
-        <v>12.00821815342209</v>
+        <v>12.06320028830677</v>
       </c>
       <c r="D185">
-        <v>12.76042021088085</v>
+        <v>12.09676245989925</v>
       </c>
       <c r="E185">
-        <v>11.99318606753272</v>
+        <v>12.05017282624073</v>
       </c>
       <c r="F185">
-        <v>12.04537621469483</v>
+        <v>12.04166358954346</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>12.13882860507391</v>
+        <v>12.05087396207434</v>
       </c>
       <c r="C186">
-        <v>11.95280903190216</v>
+        <v>12.00407017661653</v>
       </c>
       <c r="D186">
-        <v>12.7066613991579</v>
+        <v>12.03720589849392</v>
       </c>
       <c r="E186">
-        <v>11.9374466145113</v>
+        <v>11.99139723694361</v>
       </c>
       <c r="F186">
-        <v>11.98837692061255</v>
+        <v>11.98293564603577</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>12.08195675633828</v>
+        <v>11.99232453810179</v>
       </c>
       <c r="C187">
-        <v>11.89737650458883</v>
+        <v>11.94494011056499</v>
       </c>
       <c r="D187">
-        <v>12.6527343791268</v>
+        <v>11.97765098890548</v>
       </c>
       <c r="E187">
-        <v>11.88170002723558</v>
+        <v>11.93262486078951</v>
       </c>
       <c r="F187">
-        <v>11.93136368262135</v>
+        <v>11.92421111758124</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>12.02506621465676</v>
+        <v>11.93375361651196</v>
       </c>
       <c r="C188">
-        <v>11.84192412480514</v>
+        <v>11.88581296808083</v>
       </c>
       <c r="D188">
-        <v>12.59864626771846</v>
+        <v>11.91810055274197</v>
       </c>
       <c r="E188">
-        <v>11.82594922655685</v>
+        <v>11.87385840645882</v>
       </c>
       <c r="F188">
-        <v>11.87433980525557</v>
+        <v>11.86549269273319</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>11.96816045402071</v>
+        <v>11.87516471118589</v>
       </c>
       <c r="C189">
-        <v>11.78645528813529</v>
+        <v>11.82669149045454</v>
       </c>
       <c r="D189">
-        <v>12.54440395455786</v>
+        <v>11.85855727859084</v>
       </c>
       <c r="E189">
-        <v>11.77019697649234</v>
+        <v>11.81510044016341</v>
       </c>
       <c r="F189">
-        <v>11.81730845454042</v>
+        <v>11.80678293442176</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>11.91124277798687</v>
+        <v>11.81656121173351</v>
       </c>
       <c r="C190">
-        <v>11.73097325744368</v>
+        <v>11.7675782687763</v>
       </c>
       <c r="D190">
-        <v>12.49001412490478</v>
+        <v>11.79902370291355</v>
       </c>
       <c r="E190">
-        <v>11.7144459340461</v>
+        <v>11.75635340845624</v>
       </c>
       <c r="F190">
-        <v>11.76027263838423</v>
+        <v>11.74808427287771</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11.85431634958145</v>
+        <v>11.75794635328803</v>
       </c>
       <c r="C191">
-        <v>11.67548113021306</v>
+        <v>11.70847577903885</v>
       </c>
       <c r="D191">
-        <v>12.43548325240614</v>
+        <v>11.73950225302641</v>
       </c>
       <c r="E191">
-        <v>11.65869861103136</v>
+        <v>11.69761962753329</v>
       </c>
       <c r="F191">
-        <v>11.70323521878376</v>
+        <v>11.68939901775758</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>11.79738418334653</v>
+        <v>11.69932320125609</v>
       </c>
       <c r="C192">
-        <v>11.61998187082318</v>
+        <v>11.64938637686361</v>
       </c>
       <c r="D192">
-        <v>12.38081761053808</v>
+        <v>11.67999524054128</v>
       </c>
       <c r="E192">
-        <v>11.6029573929763</v>
+        <v>11.63890130454646</v>
       </c>
       <c r="F192">
-        <v>11.64619893586167</v>
+        <v>11.63072936542651</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>11.74044913694093</v>
+        <v>11.6406947105248</v>
       </c>
       <c r="C193">
-        <v>11.56447832169797</v>
+        <v>11.59031228005802</v>
       </c>
       <c r="D193">
-        <v>12.32602328352462</v>
+        <v>11.62050482978381</v>
       </c>
       <c r="E193">
-        <v>11.54722456445337</v>
+        <v>11.58020053277896</v>
       </c>
       <c r="F193">
-        <v>11.58916638566865</v>
+        <v>11.57207739803247</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>11.6835139582217</v>
+        <v>11.58206369865128</v>
       </c>
       <c r="C194">
-        <v>11.50897318098575</v>
+        <v>11.53125560997904</v>
       </c>
       <c r="D194">
-        <v>12.27110615987728</v>
+        <v>11.56103310772859</v>
       </c>
       <c r="E194">
-        <v>11.49150228355603</v>
+        <v>11.52151930033056</v>
       </c>
       <c r="F194">
-        <v>11.53214004979987</v>
+        <v>11.51344509809049</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>11.62658125948189</v>
+        <v>11.52343283819357</v>
       </c>
       <c r="C195">
-        <v>11.45346903435306</v>
+        <v>11.47221839897434</v>
       </c>
       <c r="D195">
-        <v>12.21607195355284</v>
+        <v>11.50158205329803</v>
       </c>
       <c r="E195">
-        <v>11.43579260589035</v>
+        <v>11.46285949636994</v>
       </c>
       <c r="F195">
-        <v>11.47512229641516</v>
+        <v>11.45483433706379</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.56965352533565</v>
+        <v>11.46480470335933</v>
       </c>
       <c r="C196">
-        <v>11.39796835724705</v>
+        <v>11.41320255885432</v>
       </c>
       <c r="D196">
-        <v>12.1609261988133</v>
+        <v>11.44215352442287</v>
       </c>
       <c r="E196">
-        <v>11.38009749471589</v>
+        <v>11.40422290763081</v>
       </c>
       <c r="F196">
-        <v>11.41811536635076</v>
+        <v>11.39624690524418</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.51273313930606</v>
+        <v>11.40618174809776</v>
       </c>
       <c r="C197">
-        <v>11.3424735005346</v>
+        <v>11.35420987984844</v>
       </c>
       <c r="D197">
-        <v>12.10567425667642</v>
+        <v>11.38274930853111</v>
       </c>
       <c r="E197">
-        <v>11.32441880453238</v>
+        <v>11.34561124266188</v>
       </c>
       <c r="F197">
-        <v>11.36112140974338</v>
+        <v>11.3376845049473</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.45582236348613</v>
+        <v>11.34756630450373</v>
       </c>
       <c r="C198">
-        <v>11.2869867197615</v>
+        <v>11.29524211341844</v>
       </c>
       <c r="D198">
-        <v>12.05032132789668</v>
+        <v>11.32337109848379</v>
       </c>
       <c r="E198">
-        <v>11.26875830703945</v>
+        <v>11.28702612665383</v>
       </c>
       <c r="F198">
-        <v>11.30414246940264</v>
+        <v>11.27914873608442</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.39892335337731</v>
+        <v>11.28896061596382</v>
       </c>
       <c r="C199">
-        <v>11.23151017202503</v>
+        <v>11.23630090912419</v>
       </c>
       <c r="D199">
-        <v>11.99487244583565</v>
+        <v>11.26402048560818</v>
       </c>
       <c r="E199">
-        <v>11.21311769035487</v>
+        <v>11.22846907633932</v>
       </c>
       <c r="F199">
-        <v>11.24718048412515</v>
+        <v>11.22064112726575</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.34203817504774</v>
+        <v>11.23036682129897</v>
       </c>
       <c r="C200">
-        <v>11.1760459031794</v>
+        <v>11.1773877883647</v>
       </c>
       <c r="D200">
-        <v>11.93933249356573</v>
+        <v>11.20469899849321</v>
       </c>
       <c r="E200">
-        <v>11.15749854515269</v>
+        <v>11.16994156140756</v>
       </c>
       <c r="F200">
-        <v>11.19023731146071</v>
+        <v>11.1621631466488</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.28516878659956</v>
+        <v>11.17178695299884</v>
       </c>
       <c r="C201">
-        <v>11.12059588114143</v>
+        <v>11.1185042472426</v>
       </c>
       <c r="D201">
-        <v>11.88370620043191</v>
+        <v>11.1454080840203</v>
       </c>
       <c r="E201">
-        <v>11.10190239875718</v>
+        <v>11.11144498033316</v>
       </c>
       <c r="F201">
-        <v>11.13331471287795</v>
+        <v>11.10371618029568</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.22831706052138</v>
+        <v>11.1132229678366</v>
       </c>
       <c r="C202">
-        <v>11.06516198528169</v>
+        <v>11.0596516935656</v>
       </c>
       <c r="D202">
-        <v>11.82799814347944</v>
+        <v>11.08614910608463</v>
       </c>
       <c r="E202">
-        <v>11.04633070104701</v>
+        <v>11.05298064567272</v>
       </c>
       <c r="F202">
-        <v>11.07641436621347</v>
+        <v>11.04530150266645</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.17148478614785</v>
+        <v>11.05467672998608</v>
       </c>
       <c r="C203">
-        <v>11.00974599635516</v>
+        <v>11.00083144278911</v>
       </c>
       <c r="D203">
-        <v>11.77221276924004</v>
+        <v>11.0269233715353</v>
       </c>
       <c r="E203">
-        <v>10.99078481906704</v>
+        <v>10.99454978123027</v>
       </c>
       <c r="F203">
-        <v>11.01953787513701</v>
+        <v>10.98692038082753</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.11467365615568</v>
+        <v>10.99615001188737</v>
       </c>
       <c r="C204">
-        <v>10.9543496304067</v>
+        <v>10.94204475690862</v>
       </c>
       <c r="D204">
-        <v>11.71635438766044</v>
+        <v>10.96773211744717</v>
       </c>
       <c r="E204">
-        <v>10.93526606604628</v>
+        <v>10.9361535939686</v>
       </c>
       <c r="F204">
-        <v>10.96268675665779</v>
+        <v>10.92857400499283</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>11.05788529654341</v>
+        <v>10.93764452018027</v>
       </c>
       <c r="C205">
-        <v>10.89897452373886</v>
+        <v>10.88329283775911</v>
       </c>
       <c r="D205">
-        <v>11.66042716490889</v>
+        <v>10.90857650896761</v>
       </c>
       <c r="E205">
-        <v>10.87977568671795</v>
+        <v>10.87779321981793</v>
       </c>
       <c r="F205">
-        <v>10.90586246351954</v>
+        <v>10.87026347331136</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>11.00112125477758</v>
+        <v>10.87916187946223</v>
       </c>
       <c r="C206">
-        <v>10.84362222700756</v>
+        <v>10.82457682105826</v>
       </c>
       <c r="D206">
-        <v>11.60443513435521</v>
+        <v>10.8494576639206</v>
       </c>
       <c r="E206">
-        <v>10.82431485540513</v>
+        <v>10.81946969338724</v>
       </c>
       <c r="F206">
-        <v>10.84906637760677</v>
+        <v>10.81198984761284</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>10.9443829978136</v>
+        <v>10.82070363554906</v>
       </c>
       <c r="C207">
-        <v>10.78829423454101</v>
+        <v>10.76589778356813</v>
       </c>
       <c r="D207">
-        <v>11.54838222868152</v>
+        <v>10.79037663884815</v>
       </c>
       <c r="E207">
-        <v>10.76888469969371</v>
+        <v>10.76118404031212</v>
       </c>
       <c r="F207">
-        <v>10.79229980788512</v>
+        <v>10.75375414356276</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>10.88767193381917</v>
+        <v>10.76227127640518</v>
       </c>
       <c r="C208">
-        <v>10.73299197016031</v>
+        <v>10.7072567555003</v>
       </c>
       <c r="D208">
-        <v>11.4922722567882</v>
+        <v>10.73133442890254</v>
       </c>
       <c r="E208">
-        <v>10.71348628665006</v>
+        <v>10.70293722454562</v>
       </c>
       <c r="F208">
-        <v>10.73556400861749</v>
+        <v>10.69555731514047</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>10.83098940149308</v>
+        <v>10.70386621766191</v>
       </c>
       <c r="C209">
-        <v>10.67771678436203</v>
+        <v>10.64865471255203</v>
       </c>
       <c r="D209">
-        <v>11.43610888096856</v>
+        <v>10.67233198890969</v>
       </c>
       <c r="E209">
-        <v>10.65812062510377</v>
+        <v>10.64473015137065</v>
       </c>
       <c r="F209">
-        <v>10.67886016971994</v>
+        <v>10.63740025199064</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>10.77433667115051</v>
+        <v>10.64548980828673</v>
       </c>
       <c r="C210">
-        <v>10.62246997733707</v>
+        <v>10.59009255965965</v>
       </c>
       <c r="D210">
-        <v>11.37989566058724</v>
+        <v>10.61337021981115</v>
       </c>
       <c r="E210">
-        <v>10.60278868176347</v>
+        <v>10.58656367140494</v>
       </c>
       <c r="F210">
-        <v>10.62218942128122</v>
+        <v>10.57928381894297</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>10.71771496177456</v>
+        <v>10.58714334528575</v>
       </c>
       <c r="C211">
-        <v>10.56725278742135</v>
+        <v>10.53157118167126</v>
       </c>
       <c r="D211">
-        <v>11.32363606889489</v>
+        <v>10.55444997035162</v>
       </c>
       <c r="E211">
-        <v>10.54749137037657</v>
+        <v>10.5284386077042</v>
       </c>
       <c r="F211">
-        <v>10.56555284454595</v>
+        <v>10.52120883021608</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>10.66112543025864</v>
+        <v>10.52882806229031</v>
       </c>
       <c r="C212">
-        <v>10.51206639022</v>
+        <v>10.47309141264007</v>
       </c>
       <c r="D212">
-        <v>11.26733346563378</v>
+        <v>10.49557205434644</v>
       </c>
       <c r="E212">
-        <v>10.49222955680286</v>
+        <v>10.47035573584706</v>
       </c>
       <c r="F212">
-        <v>10.5089514625752</v>
+        <v>10.46317605253196</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>10.60456917685413</v>
+        <v>10.47054513655721</v>
       </c>
       <c r="C213">
-        <v>10.45691191659948</v>
+        <v>10.41465402244264</v>
       </c>
       <c r="D213">
-        <v>11.21099107377792</v>
+        <v>10.43673723854172</v>
       </c>
       <c r="E213">
-        <v>10.43700406904996</v>
+        <v>10.41231578463458</v>
       </c>
       <c r="F213">
-        <v>10.45238625129491</v>
+        <v>10.40518621937517</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>10.54804725574053</v>
+        <v>10.41229569895264</v>
       </c>
       <c r="C214">
-        <v>10.40179044318623</v>
+        <v>10.35625975722011</v>
       </c>
       <c r="D214">
-        <v>11.15461204202984</v>
+        <v>10.37794624631056</v>
       </c>
       <c r="E214">
-        <v>10.38181568867308</v>
+        <v>10.35431945436668</v>
       </c>
       <c r="F214">
-        <v>10.39585814112735</v>
+        <v>10.34724002827854</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>10.49156066557191</v>
+        <v>10.3540808246945</v>
       </c>
       <c r="C215">
-        <v>10.34670299277557</v>
+        <v>10.29790932367351</v>
       </c>
       <c r="D215">
-        <v>11.0981994278439</v>
+        <v>10.3191997696013</v>
       </c>
       <c r="E215">
-        <v>10.32666515819221</v>
+        <v>10.29636740895009</v>
       </c>
       <c r="F215">
-        <v>10.3393680111691</v>
+        <v>10.28933813394575</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>10.43511035903917</v>
+        <v>10.29590154146537</v>
       </c>
       <c r="C216">
-        <v>10.29165054875276</v>
+        <v>10.23960338834098</v>
       </c>
       <c r="D216">
-        <v>11.04175619127716</v>
+        <v>10.26049845970693</v>
       </c>
       <c r="E216">
-        <v>10.27155318621558</v>
+        <v>10.23846026835006</v>
       </c>
       <c r="F216">
-        <v>10.28291670336632</v>
+        <v>10.23148114550292</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>10.37869724683158</v>
+        <v>10.2377588356937</v>
       </c>
       <c r="C217">
-        <v>10.23663404675351</v>
+        <v>10.18134258283292</v>
       </c>
       <c r="D217">
-        <v>10.98528517593154</v>
+        <v>10.20184293186783</v>
       </c>
       <c r="E217">
-        <v>10.2164804401588</v>
+        <v>10.18059861491544</v>
       </c>
       <c r="F217">
-        <v>10.22650501655712</v>
+        <v>10.17366965981266</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>10.32232219007392</v>
+        <v>10.17965364461808</v>
       </c>
       <c r="C218">
-        <v>10.1816543760951</v>
+        <v>10.12312750944351</v>
       </c>
       <c r="D218">
-        <v>10.92878916438927</v>
+        <v>10.14323377335181</v>
       </c>
       <c r="E218">
-        <v>10.16144755621054</v>
+        <v>10.12278301590337</v>
       </c>
       <c r="F218">
-        <v>10.17013370739622</v>
+        <v>10.11590423717611</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>10.26598601352121</v>
+        <v>10.12158686560949</v>
       </c>
       <c r="C219">
-        <v>10.12671239158007</v>
+        <v>10.06495873640164</v>
       </c>
       <c r="D219">
-        <v>10.87227084859273</v>
+        <v>10.08467153624228</v>
       </c>
       <c r="E219">
-        <v>10.10645513997771</v>
+        <v>10.06501400384462</v>
       </c>
       <c r="F219">
-        <v>10.1138034997172</v>
+        <v>10.05818539538386</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>10.20968950270135</v>
+        <v>10.06355935934716</v>
       </c>
       <c r="C220">
-        <v>10.07180890581154</v>
+        <v>10.00683678933241</v>
       </c>
       <c r="D220">
-        <v>10.8157328372975</v>
+        <v>10.02615674271034</v>
       </c>
       <c r="E220">
-        <v>10.05150376033158</v>
+        <v>10.00729207038666</v>
       </c>
       <c r="F220">
-        <v>10.05751507598395</v>
+        <v>10.00051363814641</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>10.15343340034836</v>
+        <v>10.00557194295294</v>
       </c>
       <c r="C221">
-        <v>10.01694469172377</v>
+        <v>9.948762181279976</v>
       </c>
       <c r="D221">
-        <v>10.75917764107833</v>
+        <v>9.96768989026566</v>
       </c>
       <c r="E221">
-        <v>9.996593961863779</v>
+        <v>9.949617695467236</v>
       </c>
       <c r="F221">
-        <v>10.00126908541825</v>
+        <v>9.942889440283947</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>10.09721841907699</v>
+        <v>9.947625400351848</v>
       </c>
       <c r="C222">
-        <v>9.962120491816938</v>
+        <v>9.890735393818314</v>
       </c>
       <c r="D222">
-        <v>10.70260771562073</v>
+        <v>9.909271445642934</v>
       </c>
       <c r="E222">
-        <v>9.941726260801618</v>
+        <v>9.891991330181378</v>
       </c>
       <c r="F222">
-        <v>9.945066150307056</v>
+        <v>9.885313245268438</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>10.0410452357155</v>
+        <v>9.889720482601941</v>
       </c>
       <c r="C223">
-        <v>9.907337011333057</v>
+        <v>9.832756875946854</v>
       </c>
       <c r="D223">
-        <v>10.64602543553928</v>
+        <v>9.85090185085949</v>
       </c>
       <c r="E223">
-        <v>9.886901141968373</v>
+        <v>9.834413394237544</v>
       </c>
       <c r="F223">
-        <v>9.88890686287105</v>
+        <v>9.827785467825031</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>9.984914491137244</v>
+        <v>9.831857902291343</v>
       </c>
       <c r="C224">
-        <v>9.852594921748176</v>
+        <v>9.774827059287238</v>
       </c>
       <c r="D224">
-        <v>10.58943310164608</v>
+        <v>9.792581526290222</v>
       </c>
       <c r="E224">
-        <v>9.832119069975789</v>
+        <v>9.776884282735802</v>
       </c>
       <c r="F224">
-        <v>9.832791776479651</v>
+        <v>9.770306510243847</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>9.928826799753015</v>
+        <v>9.774038344522223</v>
       </c>
       <c r="C225">
-        <v>9.797894867481022</v>
+        <v>9.716946351647767</v>
       </c>
       <c r="D225">
-        <v>10.53283293234449</v>
+        <v>9.734310865265458</v>
       </c>
       <c r="E225">
-        <v>9.777380483955724</v>
+        <v>9.719404377272976</v>
       </c>
       <c r="F225">
-        <v>9.776721416891688</v>
+        <v>9.712876749389775</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>9.87278274417033</v>
+        <v>9.71626246482359</v>
       </c>
       <c r="C226">
-        <v>9.743237460154374</v>
+        <v>9.659115132771898</v>
       </c>
       <c r="D226">
-        <v>10.47622709606674</v>
+        <v>9.676090240871549</v>
       </c>
       <c r="E226">
-        <v>9.722685796791607</v>
+        <v>9.661974035180585</v>
       </c>
       <c r="F226">
-        <v>9.720696298549965</v>
+        <v>9.655496534394324</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>9.816782876972225</v>
+        <v>9.658530884878942</v>
       </c>
       <c r="C227">
-        <v>9.6886232827891</v>
+        <v>9.601333761256869</v>
       </c>
       <c r="D227">
-        <v>10.41961769108532</v>
+        <v>9.617920006997522</v>
       </c>
       <c r="E227">
-        <v>9.668035403587984</v>
+        <v>9.60459358770178</v>
       </c>
       <c r="F227">
-        <v>9.664716908235153</v>
+        <v>9.598166202578847</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>9.760827727223463</v>
+        <v>9.600844203717505</v>
       </c>
       <c r="C228">
-        <v>9.634052894265563</v>
+        <v>9.54360258097309</v>
       </c>
       <c r="D228">
-        <v>10.36300674706225</v>
+        <v>9.559800493852867</v>
       </c>
       <c r="E228">
-        <v>9.61342967603078</v>
+        <v>9.547263354706352</v>
       </c>
       <c r="F228">
-        <v>9.608783693941685</v>
+        <v>9.540886070745493</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>9.704917793220883</v>
+        <v>9.543202993588956</v>
       </c>
       <c r="C229">
-        <v>9.579526824620974</v>
+        <v>9.48592191366934</v>
       </c>
       <c r="D229">
-        <v>10.3063962206129</v>
+        <v>9.501732015170379</v>
       </c>
       <c r="E229">
-        <v>9.558868962156065</v>
+        <v>9.489983636495154</v>
       </c>
       <c r="F229">
-        <v>9.55289707170826</v>
+        <v>9.483656433894714</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>9.649053549572985</v>
+        <v>9.485607797545883</v>
       </c>
       <c r="C230">
-        <v>9.525045579758144</v>
+        <v>9.428292059436028</v>
       </c>
       <c r="D230">
-        <v>10.24978802859085</v>
+        <v>9.443714867518292</v>
       </c>
       <c r="E230">
-        <v>9.504353598033237</v>
+        <v>9.432754711883131</v>
       </c>
       <c r="F230">
-        <v>9.497057465994736</v>
+        <v>9.426477569330636</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>9.59323545192469</v>
+        <v>9.428059139257067</v>
       </c>
       <c r="C231">
-        <v>9.470609644060627</v>
+        <v>9.370713306366879</v>
       </c>
       <c r="D231">
-        <v>10.19318402404424</v>
+        <v>9.385749323468289</v>
       </c>
       <c r="E231">
-        <v>9.449883901228986</v>
+        <v>9.375576843814567</v>
       </c>
       <c r="F231">
-        <v>9.441265270479336</v>
+        <v>9.369349743178086</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>9.537463934000495</v>
+        <v>9.37055751829908</v>
       </c>
       <c r="C232">
-        <v>9.416219473669832</v>
+        <v>9.313185925138196</v>
       </c>
       <c r="D232">
-        <v>10.13658599551142</v>
+        <v>9.327835646029223</v>
       </c>
       <c r="E232">
-        <v>9.395460174184922</v>
+        <v>9.318450284008335</v>
       </c>
       <c r="F232">
-        <v>9.385520850440592</v>
+        <v>9.312273204390911</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>9.481739404095572</v>
+        <v>9.313103405894021</v>
       </c>
       <c r="C233">
-        <v>9.361875506643001</v>
+        <v>9.255710163543839</v>
       </c>
       <c r="D233">
-        <v>10.07999567202731</v>
+        <v>9.26997408281296</v>
       </c>
       <c r="E233">
-        <v>9.341082683647494</v>
+        <v>9.261375267742658</v>
       </c>
       <c r="F233">
-        <v>9.329824539556048</v>
+        <v>9.255248181888545</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>9.426062241630625</v>
+        <v>9.255697260970692</v>
       </c>
       <c r="C234">
-        <v>9.307578163091318</v>
+        <v>9.19828626224573</v>
       </c>
       <c r="D234">
-        <v>10.02341474444006</v>
+        <v>9.212164867981549</v>
       </c>
       <c r="E234">
-        <v>9.286751706708166</v>
+        <v>9.204352011300815</v>
       </c>
       <c r="F234">
-        <v>9.274176678984476</v>
+        <v>9.198274897542429</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>9.370432826425116</v>
+        <v>9.198339521536772</v>
       </c>
       <c r="C235">
-        <v>9.253327844196155</v>
+        <v>9.140914445849646</v>
       </c>
       <c r="D235">
-        <v>9.966844847235231</v>
+        <v>9.154408215154071</v>
       </c>
       <c r="E235">
-        <v>9.232467499705399</v>
+        <v>9.147380724257589</v>
       </c>
       <c r="F235">
-        <v>9.218577583650351</v>
+        <v>9.141353558626996</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>9.31485151561369</v>
+        <v>9.14103060850239</v>
       </c>
       <c r="C236">
-        <v>9.199124928732456</v>
+        <v>9.083594922971924</v>
       </c>
       <c r="D236">
-        <v>9.910287558816345</v>
+        <v>9.096704323325314</v>
       </c>
       <c r="E236">
-        <v>9.178230307652267</v>
+        <v>9.090461602241247</v>
       </c>
       <c r="F236">
-        <v>9.163027548780024</v>
+        <v>9.084484355799855</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>9.259318649747984</v>
+        <v>9.083770912625589</v>
       </c>
       <c r="C237">
-        <v>9.144969768767755</v>
+        <v>9.026327890345625</v>
       </c>
       <c r="D237">
-        <v>9.853744410951293</v>
+        <v>9.039053391877406</v>
       </c>
       <c r="E237">
-        <v>9.124040342690881</v>
+        <v>9.033594824746235</v>
       </c>
       <c r="F237">
-        <v>9.107526844663539</v>
+        <v>9.02766746878045</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>9.203834516785419</v>
+        <v>9.026560816642881</v>
       </c>
       <c r="C238">
-        <v>9.090862718765102</v>
+        <v>8.969113534415657</v>
       </c>
       <c r="D238">
-        <v>9.797216894257881</v>
+        <v>8.981455605372096</v>
       </c>
       <c r="E238">
-        <v>9.069897811802749</v>
+        <v>8.976780561127322</v>
       </c>
       <c r="F238">
-        <v>9.052075741549963</v>
+        <v>8.970903069052641</v>
       </c>
     </row>
   </sheetData>
